--- a/Other PnL Output.xlsx
+++ b/Other PnL Output.xlsx
@@ -485,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-545729.4816818517</v>
+        <v>-1589610.357937091</v>
       </c>
       <c r="E2" t="n">
-        <v>-545729.4816818517</v>
+        <v>-1589610.357937091</v>
       </c>
     </row>
     <row r="3">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-532482.0719345042</v>
+        <v>-1518784.171778334</v>
       </c>
       <c r="E3" t="n">
-        <v>-532482.0719345042</v>
+        <v>-1518784.171778334</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-516952.5654561979</v>
+        <v>-1449205.395784951</v>
       </c>
       <c r="E4" t="n">
-        <v>-516952.5654561979</v>
+        <v>-1449205.395784951</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-499108.5627991643</v>
+        <v>-1380930.024734892</v>
       </c>
       <c r="E5" t="n">
-        <v>-499108.5627991643</v>
+        <v>-1380930.024734892</v>
       </c>
     </row>
     <row r="6">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-478982.2032967591</v>
+        <v>-1314007.7245588</v>
       </c>
       <c r="E6" t="n">
-        <v>-478982.2032967591</v>
+        <v>-1314007.7245588</v>
       </c>
     </row>
     <row r="7">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-456670.480050485</v>
+        <v>-1248482.233551432</v>
       </c>
       <c r="E7" t="n">
-        <v>-456670.480050485</v>
+        <v>-1248482.233551432</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-432332.4533888099</v>
+        <v>-1184391.887254251</v>
       </c>
       <c r="E8" t="n">
-        <v>-432332.4533888099</v>
+        <v>-1184391.887254251</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-406183.8344384246</v>
+        <v>-1121770.219925293</v>
       </c>
       <c r="E9" t="n">
-        <v>-406183.8344384246</v>
+        <v>-1121770.219925293</v>
       </c>
     </row>
     <row r="10">
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-378489.5454414763</v>
+        <v>-1060646.600530692</v>
       </c>
       <c r="E10" t="n">
-        <v>-378489.5454414763</v>
+        <v>-1060646.600530692</v>
       </c>
     </row>
     <row r="11">
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-349554.917346263</v>
+        <v>-1001046.867564424</v>
       </c>
       <c r="E11" t="n">
-        <v>-349554.917346263</v>
+        <v>-1001046.867564424</v>
       </c>
     </row>
     <row r="12">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-319716.1668053888</v>
+        <v>-942993.9340036723</v>
       </c>
       <c r="E12" t="n">
-        <v>-319716.1668053888</v>
+        <v>-942993.9340036723</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-289330.7201092277</v>
+        <v>-886508.3407557013</v>
       </c>
       <c r="E13" t="n">
-        <v>-289330.7201092277</v>
+        <v>-886508.3407557013</v>
       </c>
     </row>
     <row r="14">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-258767.840621737</v>
+        <v>-831608.7436153258</v>
       </c>
       <c r="E14" t="n">
-        <v>-258767.840621737</v>
+        <v>-831608.7436153258</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-228399.8892803558</v>
+        <v>-778312.3247362981</v>
       </c>
       <c r="E15" t="n">
-        <v>-228399.8892803558</v>
+        <v>-778312.3247362981</v>
       </c>
     </row>
     <row r="16">
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-198594.4226943662</v>
+        <v>-726635.1247525257</v>
       </c>
       <c r="E16" t="n">
-        <v>-198594.4226943662</v>
+        <v>-726635.1247525257</v>
       </c>
     </row>
     <row r="17">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-169707.2241821001</v>
+        <v>-676592.2958922661</v>
       </c>
       <c r="E17" t="n">
-        <v>-169707.2241821001</v>
+        <v>-676592.2958922661</v>
       </c>
     </row>
     <row r="18">
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-142076.2784853416</v>
+        <v>-628198.2797119947</v>
       </c>
       <c r="E18" t="n">
-        <v>-142076.2784853416</v>
+        <v>-628198.2797119947</v>
       </c>
     </row>
     <row r="19">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-116016.6445045893</v>
+        <v>-581466.9154926395</v>
       </c>
       <c r="E19" t="n">
-        <v>-116016.6445045893</v>
+        <v>-581466.9154926395</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-91816.15133864719</v>
+        <v>-536411.4869793449</v>
       </c>
       <c r="E20" t="n">
-        <v>-91816.15133864719</v>
+        <v>-536411.4869793449</v>
       </c>
     </row>
     <row r="21">
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-69731.83694026213</v>
+        <v>-493044.7161165092</v>
       </c>
       <c r="E21" t="n">
-        <v>-69731.83694026213</v>
+        <v>-493044.7161165092</v>
       </c>
     </row>
     <row r="22">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-49987.05951599465</v>
+        <v>-451378.7128482885</v>
       </c>
       <c r="E22" t="n">
-        <v>-49987.05951599465</v>
+        <v>-451378.7128482885</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-32769.23234735137</v>
+        <v>-411424.8900348152</v>
       </c>
       <c r="E23" t="n">
-        <v>-32769.23234735137</v>
+        <v>-411424.8900348152</v>
       </c>
     </row>
     <row r="24">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-18228.15628478258</v>
+        <v>-373193.8521812737</v>
       </c>
       <c r="E24" t="n">
-        <v>-18228.15628478258</v>
+        <v>-373193.8521812737</v>
       </c>
     </row>
     <row r="25">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-6474.94521864444</v>
+        <v>-336695.2660842185</v>
       </c>
       <c r="E25" t="n">
-        <v>-6474.94521864444</v>
+        <v>-336695.2660842185</v>
       </c>
     </row>
     <row r="26">
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2418.445553537662</v>
+        <v>-301937.7207467649</v>
       </c>
       <c r="E26" t="n">
-        <v>2418.445553537662</v>
+        <v>-301937.7207467649</v>
       </c>
     </row>
     <row r="27">
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>8419.07209394492</v>
+        <v>-268928.5830674744</v>
       </c>
       <c r="E27" t="n">
-        <v>8419.07209394492</v>
+        <v>-268928.5830674744</v>
       </c>
     </row>
     <row r="28">
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>11532.22271819513</v>
+        <v>-237673.8549193205</v>
       </c>
       <c r="E28" t="n">
-        <v>11532.22271819513</v>
+        <v>-237673.8549193205</v>
       </c>
     </row>
     <row r="29">
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11800.0050478453</v>
+        <v>-208178.0363455511</v>
       </c>
       <c r="E29" t="n">
-        <v>11800.0050478453</v>
+        <v>-208178.0363455511</v>
       </c>
     </row>
     <row r="30">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>9299.314450545149</v>
+        <v>-180443.9987384813</v>
       </c>
       <c r="E30" t="n">
-        <v>9299.314450545149</v>
+        <v>-180443.9987384813</v>
       </c>
     </row>
     <row r="31">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4139.219982131722</v>
+        <v>-154472.8710561827</v>
       </c>
       <c r="E31" t="n">
-        <v>4139.219982131722</v>
+        <v>-154472.8710561827</v>
       </c>
     </row>
     <row r="32">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-3542.174099201927</v>
+        <v>-130263.9413846537</v>
       </c>
       <c r="E32" t="n">
-        <v>-3542.174099201927</v>
+        <v>-130263.9413846537</v>
       </c>
     </row>
     <row r="33">
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-13581.31258279161</v>
+        <v>-107814.5754772365</v>
       </c>
       <c r="E33" t="n">
-        <v>-13581.31258279161</v>
+        <v>-107814.5754772365</v>
       </c>
     </row>
     <row r="34">
@@ -1023,16 +1023,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-25793.1234322684</v>
+        <v>-87120.15330252818</v>
       </c>
       <c r="E34" t="n">
-        <v>-25793.1234322684</v>
+        <v>-87120.15330252818</v>
       </c>
     </row>
     <row r="35">
@@ -1040,16 +1040,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-39975.1934892842</v>
+        <v>-68174.02410714133</v>
       </c>
       <c r="E35" t="n">
-        <v>-39975.1934892842</v>
+        <v>-68174.02410714133</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +1057,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-55912.07067365501</v>
+        <v>-50967.48004834106</v>
       </c>
       <c r="E36" t="n">
-        <v>-55912.07067365501</v>
+        <v>-50967.48004834106</v>
       </c>
     </row>
     <row r="37">
@@ -1074,16 +1074,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-73379.57667639203</v>
+        <v>-35489.74807028029</v>
       </c>
       <c r="E37" t="n">
-        <v>-73379.57667639203</v>
+        <v>-35489.74807028029</v>
       </c>
     </row>
     <row r="38">
@@ -1091,16 +1091,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-92149.01878498892</v>
+        <v>-21727.99938155226</v>
       </c>
       <c r="E38" t="n">
-        <v>-92149.01878498892</v>
+        <v>-21727.99938155226</v>
       </c>
     </row>
     <row r="39">
@@ -1108,16 +1108,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-111991.1989926397</v>
+        <v>-9667.375635765713</v>
       </c>
       <c r="E39" t="n">
-        <v>-111991.1989926397</v>
+        <v>-9667.375635765713</v>
       </c>
     </row>
     <row r="40">
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-132680.1319507819</v>
+        <v>708.9692844803951</v>
       </c>
       <c r="E40" t="n">
-        <v>-132680.1319507819</v>
+        <v>708.9692844803951</v>
       </c>
     </row>
     <row r="41">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-153996.3995027672</v>
+        <v>9419.813132399287</v>
       </c>
       <c r="E41" t="n">
-        <v>-153996.3995027672</v>
+        <v>9419.813132399287</v>
       </c>
     </row>
     <row r="42">
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-175730.0873241421</v>
+        <v>16485.79617163321</v>
       </c>
       <c r="E42" t="n">
-        <v>-175730.0873241421</v>
+        <v>16485.79617163321</v>
       </c>
     </row>
     <row r="43">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-197683.2674871413</v>
+        <v>21929.34049240487</v>
       </c>
       <c r="E43" t="n">
-        <v>-197683.2674871413</v>
+        <v>21929.34049240487</v>
       </c>
     </row>
     <row r="44">
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-219672.0085860042</v>
+        <v>25774.55923818596</v>
       </c>
       <c r="E44" t="n">
-        <v>-219672.0085860042</v>
+        <v>25774.55923818596</v>
       </c>
     </row>
     <row r="45">
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-241527.911600387</v>
+        <v>28047.15722041252</v>
       </c>
       <c r="E45" t="n">
-        <v>-241527.911600387</v>
+        <v>28047.15722041252</v>
       </c>
     </row>
     <row r="46">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-263099.1843271338</v>
+        <v>28774.32438283319</v>
       </c>
       <c r="E46" t="n">
-        <v>-263099.1843271338</v>
+        <v>28774.32438283319</v>
       </c>
     </row>
     <row r="47">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-284251.2795661328</v>
+        <v>27984.6235406062</v>
       </c>
       <c r="E47" t="n">
-        <v>-284251.2795661328</v>
+        <v>27984.6235406062</v>
       </c>
     </row>
     <row r="48">
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-304867.1320828871</v>
+        <v>25707.87376585329</v>
       </c>
       <c r="E48" t="n">
-        <v>-304867.1320828871</v>
+        <v>25707.87376585329</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-324847.0366343027</v>
+        <v>21975.03072426083</v>
       </c>
       <c r="E49" t="n">
-        <v>-324847.0366343027</v>
+        <v>21975.03072426083</v>
       </c>
     </row>
     <row r="50">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-344108.2141194587</v>
+        <v>16818.06518953516</v>
       </c>
       <c r="E50" t="n">
-        <v>-344108.2141194587</v>
+        <v>16818.06518953516</v>
       </c>
     </row>
     <row r="51">
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-362584.1153950893</v>
+        <v>10269.84087661793</v>
       </c>
       <c r="E51" t="n">
-        <v>-362584.1153950893</v>
+        <v>10269.84087661793</v>
       </c>
     </row>
     <row r="52">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-380223.5127433942</v>
+        <v>2363.992642980505</v>
       </c>
       <c r="E52" t="n">
-        <v>-380223.5127433942</v>
+        <v>2363.992642980505</v>
       </c>
     </row>
     <row r="53">
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-396989.4277118156</v>
+        <v>-6865.193987882114</v>
       </c>
       <c r="E53" t="n">
-        <v>-396989.4277118156</v>
+        <v>-6865.193987882114</v>
       </c>
     </row>
     <row r="54">
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-412857.9413949068</v>
+        <v>-17382.90112356388</v>
       </c>
       <c r="E54" t="n">
-        <v>-412857.9413949068</v>
+        <v>-17382.90112356388</v>
       </c>
     </row>
     <row r="55">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-427816.9295321219</v>
+        <v>-29153.89386042168</v>
       </c>
       <c r="E55" t="n">
-        <v>-427816.9295321219</v>
+        <v>-29153.89386042168</v>
       </c>
     </row>
     <row r="56">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-441864.7603693155</v>
+        <v>-42142.63203769439</v>
       </c>
       <c r="E56" t="n">
-        <v>-441864.7603693155</v>
+        <v>-42142.63203769439</v>
       </c>
     </row>
     <row r="57">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-455008.9883644754</v>
+        <v>-56313.37781742038</v>
       </c>
       <c r="E57" t="n">
-        <v>-455008.9883644754</v>
+        <v>-56313.37781742038</v>
       </c>
     </row>
     <row r="58">
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-467265.0717609</v>
+        <v>-71630.29860979834</v>
       </c>
       <c r="E58" t="n">
-        <v>-467265.0717609</v>
+        <v>-71630.29860979834</v>
       </c>
     </row>
     <row r="59">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-478655.1370148459</v>
+        <v>-88057.56494966641</v>
       </c>
       <c r="E59" t="n">
-        <v>-478655.1370148459</v>
+        <v>-88057.56494966641</v>
       </c>
     </row>
     <row r="60">
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-489206.808217692</v>
+        <v>-105559.4430111105</v>
       </c>
       <c r="E60" t="n">
-        <v>-489206.808217692</v>
+        <v>-105559.4430111105</v>
       </c>
     </row>
     <row r="61">
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-498952.115123542</v>
+        <v>-124100.3815233626</v>
       </c>
       <c r="E61" t="n">
-        <v>-498952.115123542</v>
+        <v>-124100.3815233626</v>
       </c>
     </row>
     <row r="62">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-507926.4892722291</v>
+        <v>-143645.0929217441</v>
       </c>
       <c r="E62" t="n">
-        <v>-507926.4892722291</v>
+        <v>-143645.0929217441</v>
       </c>
     </row>
     <row r="63">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-516167.8540418956</v>
+        <v>-164158.6286322091</v>
       </c>
       <c r="E63" t="n">
-        <v>-516167.8540418956</v>
+        <v>-164158.6286322091</v>
       </c>
     </row>
     <row r="64">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-523715.8113032742</v>
+        <v>-185606.4484470545</v>
       </c>
       <c r="E64" t="n">
-        <v>-523715.8113032742</v>
+        <v>-185606.4484470545</v>
       </c>
     </row>
     <row r="65">
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-530610.92468424</v>
+        <v>-207954.4840025015</v>
       </c>
       <c r="E65" t="n">
-        <v>-530610.92468424</v>
+        <v>-207954.4840025015</v>
       </c>
     </row>
     <row r="66">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-536894.0972741889</v>
+        <v>-231169.1964160953</v>
       </c>
       <c r="E66" t="n">
-        <v>-536894.0972741889</v>
+        <v>-231169.1964160953</v>
       </c>
     </row>
     <row r="67">
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-542606.0398753982</v>
+        <v>-255217.628183717</v>
       </c>
       <c r="E67" t="n">
-        <v>-542606.0398753982</v>
+        <v>-255217.628183717</v>
       </c>
     </row>
     <row r="68">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-547786.8246049841</v>
+        <v>-280067.449471971</v>
       </c>
       <c r="E68" t="n">
-        <v>-547786.8246049841</v>
+        <v>-280067.449471971</v>
       </c>
     </row>
     <row r="69">
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-552475.5177220684</v>
+        <v>-305686.9989730321</v>
       </c>
       <c r="E69" t="n">
-        <v>-552475.5177220684</v>
+        <v>-305686.9989730321</v>
       </c>
     </row>
     <row r="70">
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-556709.8849533384</v>
+        <v>-332045.3195148039</v>
       </c>
       <c r="E70" t="n">
-        <v>-556709.8849533384</v>
+        <v>-332045.3195148039</v>
       </c>
     </row>
     <row r="71">
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-560526.1622678491</v>
+        <v>-359112.1886409573</v>
       </c>
       <c r="E71" t="n">
-        <v>-560526.1622678491</v>
+        <v>-359112.1886409573</v>
       </c>
     </row>
     <row r="72">
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-563958.8849623038</v>
+        <v>-386858.1443923414</v>
       </c>
       <c r="E72" t="n">
-        <v>-563958.8849623038</v>
+        <v>-386858.1443923414</v>
       </c>
     </row>
   </sheetData>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-568462.1841147613</v>
+        <v>-1584394.933981213</v>
       </c>
       <c r="E2" t="n">
-        <v>-568462.1841147613</v>
+        <v>-1584394.933981213</v>
       </c>
     </row>
     <row r="3">
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-558704.1904059576</v>
+        <v>-1512031.718041794</v>
       </c>
       <c r="E3" t="n">
-        <v>-558704.1904059576</v>
+        <v>-1512031.718041794</v>
       </c>
     </row>
     <row r="4">
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-546428.6147025144</v>
+        <v>-1440884.037955896</v>
       </c>
       <c r="E4" t="n">
-        <v>-546428.6147025144</v>
+        <v>-1440884.037955896</v>
       </c>
     </row>
     <row r="5">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-531402.2652303367</v>
+        <v>-1371018.741588894</v>
       </c>
       <c r="E5" t="n">
-        <v>-531402.2652303367</v>
+        <v>-1371018.741588894</v>
       </c>
     </row>
     <row r="6">
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-513467.4617149748</v>
+        <v>-1302494.743517506</v>
       </c>
       <c r="E6" t="n">
-        <v>-513467.4617149748</v>
+        <v>-1302494.743517506</v>
       </c>
     </row>
     <row r="7">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-492556.7050849089</v>
+        <v>-1235363.192529202</v>
       </c>
       <c r="E7" t="n">
-        <v>-492556.7050849089</v>
+        <v>-1235363.192529202</v>
       </c>
     </row>
     <row r="8">
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-468701.5583147301</v>
+        <v>-1169667.907938877</v>
       </c>
       <c r="E8" t="n">
-        <v>-468701.5583147301</v>
+        <v>-1169667.907938877</v>
       </c>
     </row>
     <row r="9">
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-442035.1546903573</v>
+        <v>-1105446.022088855</v>
       </c>
       <c r="E9" t="n">
-        <v>-442035.1546903573</v>
+        <v>-1105446.022088855</v>
       </c>
     </row>
     <row r="10">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-412788.4255208914</v>
+        <v>-1042728.764836308</v>
       </c>
       <c r="E10" t="n">
-        <v>-412788.4255208914</v>
+        <v>-1042728.764836308</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-381280.7473941919</v>
+        <v>-981542.3286370935</v>
       </c>
       <c r="E11" t="n">
-        <v>-381280.7473941919</v>
+        <v>-981542.3286370935</v>
       </c>
     </row>
     <row r="12">
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-347906.1795333817</v>
+        <v>-921908.7589299171</v>
       </c>
       <c r="E12" t="n">
-        <v>-347906.1795333817</v>
+        <v>-921908.7589299171</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-313116.7505959477</v>
+        <v>-863846.8228147497</v>
       </c>
       <c r="E13" t="n">
-        <v>-313116.7505959477</v>
+        <v>-863846.8228147497</v>
       </c>
     </row>
     <row r="14">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-277404.3463218156</v>
+        <v>-807372.8184878002</v>
       </c>
       <c r="E14" t="n">
-        <v>-277404.3463218156</v>
+        <v>-807372.8184878002</v>
       </c>
     </row>
     <row r="15">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-241282.6574541473</v>
+        <v>-752501.2976686859</v>
       </c>
       <c r="E15" t="n">
-        <v>-241282.6574541473</v>
+        <v>-752501.2976686859</v>
       </c>
     </row>
     <row r="16">
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-205270.406658199</v>
+        <v>-699245.6826398001</v>
       </c>
       <c r="E16" t="n">
-        <v>-205270.406658199</v>
+        <v>-699245.6826398001</v>
       </c>
     </row>
     <row r="17">
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-169876.7340948468</v>
+        <v>-647618.768009601</v>
       </c>
       <c r="E17" t="n">
-        <v>-169876.7340948468</v>
+        <v>-647618.768009601</v>
       </c>
     </row>
     <row r="18">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-135589.2404025992</v>
+        <v>-597633.1045890101</v>
       </c>
       <c r="E18" t="n">
-        <v>-135589.2404025992</v>
+        <v>-597633.1045890101</v>
       </c>
     </row>
     <row r="19">
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-102864.8172551205</v>
+        <v>-549301.268672422</v>
       </c>
       <c r="E19" t="n">
-        <v>-102864.8172551205</v>
+        <v>-549301.268672422</v>
       </c>
     </row>
     <row r="20">
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-72123.08404063614</v>
+        <v>-502636.0245123409</v>
       </c>
       <c r="E20" t="n">
-        <v>-72123.08404063614</v>
+        <v>-502636.0245123409</v>
       </c>
     </row>
     <row r="21">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-43742.02490255746</v>
+        <v>-457650.3909395995</v>
       </c>
       <c r="E21" t="n">
-        <v>-43742.02490255746</v>
+        <v>-457650.3909395995</v>
       </c>
     </row>
     <row r="22">
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-18055.29733861447</v>
+        <v>-414357.6250473735</v>
       </c>
       <c r="E22" t="n">
-        <v>-18055.29733861447</v>
+        <v>-414357.6250473735</v>
       </c>
     </row>
     <row r="23">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4649.340123120135</v>
+        <v>-372771.136805526</v>
       </c>
       <c r="E23" t="n">
-        <v>4649.340123120135</v>
+        <v>-372771.136805526</v>
       </c>
     </row>
     <row r="24">
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>24130.97300075299</v>
+        <v>-332904.3485972146</v>
       </c>
       <c r="E24" t="n">
-        <v>24130.97300075299</v>
+        <v>-332904.3485972146</v>
       </c>
     </row>
     <row r="25">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40196.21953036025</v>
+        <v>-294770.513166312</v>
       </c>
       <c r="E25" t="n">
-        <v>40196.21953036025</v>
+        <v>-294770.513166312</v>
       </c>
     </row>
     <row r="26">
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>52699.880640886</v>
+        <v>-258382.5025120612</v>
       </c>
       <c r="E26" t="n">
-        <v>52699.880640886</v>
+        <v>-258382.5025120612</v>
       </c>
     </row>
     <row r="27">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>61545.61145921684</v>
+        <v>-223752.5790242926</v>
       </c>
       <c r="E27" t="n">
-        <v>61545.61145921684</v>
+        <v>-223752.5790242926</v>
       </c>
     </row>
     <row r="28">
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66686.53641996135</v>
+        <v>-190892.1587501445</v>
       </c>
       <c r="E28" t="n">
-        <v>66686.53641996135</v>
+        <v>-190892.1587501445</v>
       </c>
     </row>
     <row r="29">
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>68125.62826514152</v>
+        <v>-159811.5752257049</v>
       </c>
       <c r="E29" t="n">
-        <v>68125.62826514152</v>
+        <v>-159811.5752257049</v>
       </c>
     </row>
     <row r="30">
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>65915.61504594769</v>
+        <v>-130519.8508716884</v>
       </c>
       <c r="E30" t="n">
-        <v>65915.61504594769</v>
+        <v>-130519.8508716884</v>
       </c>
     </row>
     <row r="31">
@@ -2231,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60158.17028661996</v>
+        <v>-103024.4815958701</v>
       </c>
       <c r="E31" t="n">
-        <v>60158.17028661996</v>
+        <v>-103024.4815958701</v>
       </c>
     </row>
     <row r="32">
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>51002.1748392789</v>
+        <v>-77331.23900163249</v>
       </c>
       <c r="E32" t="n">
-        <v>51002.1748392789</v>
+        <v>-77331.23900163249</v>
       </c>
     </row>
     <row r="33">
@@ -2265,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>38640.90503881395</v>
+        <v>-53443.99349056659</v>
       </c>
       <c r="E33" t="n">
-        <v>38640.90503881395</v>
+        <v>-53443.99349056659</v>
       </c>
     </row>
     <row r="34">
@@ -2276,16 +2276,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>23308.08830945065</v>
+        <v>-31364.56057437035</v>
       </c>
       <c r="E34" t="n">
-        <v>23308.08830945065</v>
+        <v>-31364.56057437035</v>
       </c>
     </row>
     <row r="35">
@@ -2293,16 +2293,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5272.861494527058</v>
+        <v>-11092.57187520403</v>
       </c>
       <c r="E35" t="n">
-        <v>5272.861494527058</v>
+        <v>-11092.57187520403</v>
       </c>
     </row>
     <row r="36">
@@ -2310,16 +2310,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-15166.24295083527</v>
+        <v>7374.62841386173</v>
       </c>
       <c r="E36" t="n">
-        <v>-15166.24295083527</v>
+        <v>7374.62841386173</v>
       </c>
     </row>
     <row r="37">
@@ -2327,16 +2327,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-37688.08170216258</v>
+        <v>24042.06142702449</v>
       </c>
       <c r="E37" t="n">
-        <v>-37688.08170216258</v>
+        <v>24042.06142702449</v>
       </c>
     </row>
     <row r="38">
@@ -2344,16 +2344,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-61956.19936612792</v>
+        <v>38917.16618772186</v>
       </c>
       <c r="E38" t="n">
-        <v>-61956.19936612792</v>
+        <v>38917.16618772186</v>
       </c>
     </row>
     <row r="39">
@@ -2361,16 +2361,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-87626.35258171111</v>
+        <v>52009.82753532469</v>
       </c>
       <c r="E39" t="n">
-        <v>-87626.35258171111</v>
+        <v>52009.82753532469</v>
       </c>
     </row>
     <row r="40">
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-114353.9630212592</v>
+        <v>63332.38043551342</v>
       </c>
       <c r="E40" t="n">
-        <v>-114353.9630212592</v>
+        <v>63332.38043551342</v>
       </c>
     </row>
     <row r="41">
@@ -2401,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-141801.2174625247</v>
+        <v>72899.59194492825</v>
       </c>
       <c r="E41" t="n">
-        <v>-141801.2174625247</v>
+        <v>72899.59194492825</v>
       </c>
     </row>
     <row r="42">
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-169643.5660723513</v>
+        <v>80728.62229618174</v>
       </c>
       <c r="E42" t="n">
-        <v>-169643.5660723513</v>
+        <v>80728.62229618174</v>
       </c>
     </row>
     <row r="43">
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-197575.4165165359</v>
+        <v>86838.9667170607</v>
       </c>
       <c r="E43" t="n">
-        <v>-197575.4165165359</v>
+        <v>86838.9667170607</v>
       </c>
     </row>
     <row r="44">
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-225314.8761983531</v>
+        <v>91252.37970486213</v>
       </c>
       <c r="E44" t="n">
-        <v>-225314.8761983531</v>
+        <v>91252.37970486213</v>
       </c>
     </row>
     <row r="45">
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-252607.4527161257</v>
+        <v>93992.78354904118</v>
       </c>
       <c r="E45" t="n">
-        <v>-252607.4527161257</v>
+        <v>93992.78354904118</v>
       </c>
     </row>
     <row r="46">
@@ -2486,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-279228.6790113865</v>
+        <v>95086.16293734424</v>
       </c>
       <c r="E46" t="n">
-        <v>-279228.6790113865</v>
+        <v>95086.16293734424</v>
       </c>
     </row>
     <row r="47">
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-304985.6810319921</v>
+        <v>94560.44749613912</v>
       </c>
       <c r="E47" t="n">
-        <v>-304985.6810319921</v>
+        <v>94560.44749613912</v>
       </c>
     </row>
     <row r="48">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-329717.7494553833</v>
+        <v>92445.38410797161</v>
       </c>
       <c r="E48" t="n">
-        <v>-329717.7494553833</v>
+        <v>92445.38410797161</v>
       </c>
     </row>
     <row r="49">
@@ -2537,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-353296.0115313515</v>
+        <v>88772.4008208978</v>
       </c>
       <c r="E49" t="n">
-        <v>-353296.0115313515</v>
+        <v>88772.4008208978</v>
       </c>
     </row>
     <row r="50">
@@ -2554,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-375622.3237805272</v>
+        <v>83574.46411754146</v>
       </c>
       <c r="E50" t="n">
-        <v>-375622.3237805272</v>
+        <v>83574.46411754146</v>
       </c>
     </row>
     <row r="51">
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-396627.5212923451</v>
+        <v>76885.93124894249</v>
       </c>
       <c r="E51" t="n">
-        <v>-396627.5212923451</v>
+        <v>76885.93124894249</v>
       </c>
     </row>
     <row r="52">
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-416269.1654898312</v>
+        <v>68742.39926134644</v>
       </c>
       <c r="E52" t="n">
-        <v>-416269.1654898312</v>
+        <v>68742.39926134644</v>
       </c>
     </row>
     <row r="53">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-434528.9306815054</v>
+        <v>59180.55225502877</v>
       </c>
       <c r="E53" t="n">
-        <v>-434528.9306815054</v>
+        <v>59180.55225502877</v>
       </c>
     </row>
     <row r="54">
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-451409.7619651177</v>
+        <v>48238.00831503357</v>
       </c>
       <c r="E54" t="n">
-        <v>-451409.7619651177</v>
+        <v>48238.00831503357</v>
       </c>
     </row>
     <row r="55">
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-466932.9246370746</v>
+        <v>35953.16744631794</v>
       </c>
       <c r="E55" t="n">
-        <v>-466932.9246370746</v>
+        <v>35953.16744631794</v>
       </c>
     </row>
     <row r="56">
@@ -2656,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-481135.0497140017</v>
+        <v>22365.0617321108</v>
       </c>
       <c r="E56" t="n">
-        <v>-481135.0497140017</v>
+        <v>22365.0617321108</v>
       </c>
     </row>
     <row r="57">
@@ -2673,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-494065.2628784461</v>
+        <v>7513.208816161496</v>
       </c>
       <c r="E57" t="n">
-        <v>-494065.2628784461</v>
+        <v>7513.208816161496</v>
       </c>
     </row>
     <row r="58">
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-505782.4663188099</v>
+        <v>-8562.530310987349</v>
       </c>
       <c r="E58" t="n">
-        <v>-505782.4663188099</v>
+        <v>-8562.530310987349</v>
       </c>
     </row>
     <row r="59">
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-516352.8255200344</v>
+        <v>-25822.08836316731</v>
       </c>
       <c r="E59" t="n">
-        <v>-516352.8255200344</v>
+        <v>-25822.08836316731</v>
       </c>
     </row>
     <row r="60">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-525847.4968190542</v>
+        <v>-44225.32290923604</v>
       </c>
       <c r="E60" t="n">
-        <v>-525847.4968190542</v>
+        <v>-44225.32290923604</v>
       </c>
     </row>
     <row r="61">
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-534340.6169861548</v>
+        <v>-63732.14100381237</v>
       </c>
       <c r="E61" t="n">
-        <v>-534340.6169861548</v>
+        <v>-63732.14100381237</v>
       </c>
     </row>
     <row r="62">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-541907.5635458685</v>
+        <v>-84302.61679336138</v>
       </c>
       <c r="E62" t="n">
-        <v>-541907.5635458685</v>
+        <v>-84302.61679336138</v>
       </c>
     </row>
     <row r="63">
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-548623.4841512542</v>
+        <v>-105897.1017031001</v>
       </c>
       <c r="E63" t="n">
-        <v>-548623.4841512542</v>
+        <v>-105897.1017031001</v>
       </c>
     </row>
     <row r="64">
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-554562.0850750562</v>
+        <v>-128476.3269144426</v>
       </c>
       <c r="E64" t="n">
-        <v>-554562.0850750562</v>
+        <v>-128476.3269144426</v>
       </c>
     </row>
     <row r="65">
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-559794.6626761339</v>
+        <v>-152001.4979404582</v>
       </c>
       <c r="E65" t="n">
-        <v>-559794.6626761339</v>
+        <v>-152001.4979404582</v>
       </c>
     </row>
     <row r="66">
@@ -2826,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-564389.3573584782</v>
+        <v>-176434.3811974274</v>
       </c>
       <c r="E66" t="n">
-        <v>-564389.3573584782</v>
+        <v>-176434.3811974274</v>
       </c>
     </row>
     <row r="67">
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-568410.6068369094</v>
+        <v>-201737.3825535638</v>
       </c>
       <c r="E67" t="n">
-        <v>-568410.6068369094</v>
+        <v>-201737.3825535638</v>
       </c>
     </row>
     <row r="68">
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-571918.7742056281</v>
+        <v>-227873.6179108861</v>
       </c>
       <c r="E68" t="n">
-        <v>-571918.7742056281</v>
+        <v>-227873.6179108861</v>
       </c>
     </row>
     <row r="69">
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-574969.9261184453</v>
+        <v>-254806.9759433965</v>
       </c>
       <c r="E69" t="n">
-        <v>-574969.9261184453</v>
+        <v>-254806.9759433965</v>
       </c>
     </row>
     <row r="70">
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-577615.7370848819</v>
+        <v>-282502.1731734041</v>
       </c>
       <c r="E70" t="n">
-        <v>-577615.7370848819</v>
+        <v>-282502.1731734041</v>
       </c>
     </row>
     <row r="71">
@@ -2911,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-579903.4972381957</v>
+        <v>-310924.8016189734</v>
       </c>
       <c r="E71" t="n">
-        <v>-579903.4972381957</v>
+        <v>-310924.8016189734</v>
       </c>
     </row>
     <row r="72">
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-581876.2027376157</v>
+        <v>-340041.3692886587</v>
       </c>
       <c r="E72" t="n">
-        <v>-581876.2027376157</v>
+        <v>-340041.3692886587</v>
       </c>
     </row>
   </sheetData>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1575277.43240117</v>
       </c>
       <c r="E2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1575277.43240117</v>
       </c>
     </row>
     <row r="3">
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1499263.475632116</v>
       </c>
       <c r="E3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1499263.475632116</v>
       </c>
     </row>
     <row r="4">
@@ -3025,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1424331.285467134</v>
       </c>
       <c r="E4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1424331.285467134</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1350596.278271653</v>
       </c>
       <c r="E5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1350596.278271653</v>
       </c>
     </row>
     <row r="6">
@@ -3059,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1278165.20616548</v>
       </c>
       <c r="E6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1278165.20616548</v>
       </c>
     </row>
     <row r="7">
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1207133.575630212</v>
       </c>
       <c r="E7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1207133.575630212</v>
       </c>
     </row>
     <row r="8">
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1137583.663426805</v>
       </c>
       <c r="E8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1137583.663426805</v>
       </c>
     </row>
     <row r="9">
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1069583.226998484</v>
       </c>
       <c r="E9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1069583.226998484</v>
       </c>
     </row>
     <row r="10">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1003184.9617923</v>
       </c>
       <c r="E10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1003184.9617923</v>
       </c>
     </row>
     <row r="11">
@@ -3144,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-938426.7109554455</v>
       </c>
       <c r="E11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-938426.7109554455</v>
       </c>
     </row>
     <row r="12">
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-875332.386287429</v>
       </c>
       <c r="E12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-875332.386287429</v>
       </c>
     </row>
     <row r="13">
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-813913.5160187552</v>
       </c>
       <c r="E13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-813913.5160187552</v>
       </c>
     </row>
     <row r="14">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-754171.2979010107</v>
       </c>
       <c r="E14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-754171.2979010107</v>
       </c>
     </row>
     <row r="15">
@@ -3212,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-696099.0080195465</v>
       </c>
       <c r="E15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-696099.0080195465</v>
       </c>
     </row>
     <row r="16">
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-639684.5989349553</v>
       </c>
       <c r="E16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-639684.5989349553</v>
       </c>
     </row>
     <row r="17">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-584913.316595027</v>
       </c>
       <c r="E17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-584913.316595027</v>
       </c>
     </row>
     <row r="18">
@@ -3263,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-531770.1741577906</v>
       </c>
       <c r="E18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-531770.1741577906</v>
       </c>
     </row>
     <row r="19">
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-480242.141399667</v>
       </c>
       <c r="E19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-480242.141399667</v>
       </c>
     </row>
     <row r="20">
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>63858.34120738057</v>
+        <v>-430319.9385544538</v>
       </c>
       <c r="E20" t="n">
-        <v>63858.34120738057</v>
+        <v>-430319.9385544538</v>
       </c>
     </row>
     <row r="21">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146494.8412073806</v>
+        <v>-381999.3601357624</v>
       </c>
       <c r="E21" t="n">
-        <v>146494.8412073806</v>
+        <v>-381999.3601357624</v>
       </c>
     </row>
     <row r="22">
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>229131.3412073806</v>
+        <v>-335282.0939143356</v>
       </c>
       <c r="E22" t="n">
-        <v>229131.3412073806</v>
+        <v>-335282.0939143356</v>
       </c>
     </row>
     <row r="23">
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229131.3412073806</v>
+        <v>-290176.0390535995</v>
       </c>
       <c r="E23" t="n">
-        <v>229131.3412073806</v>
+        <v>-290176.0390535995</v>
       </c>
     </row>
     <row r="24">
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>229131.3412073806</v>
+        <v>-246695.1621050156</v>
       </c>
       <c r="E24" t="n">
-        <v>229131.3412073806</v>
+        <v>-246695.1621050156</v>
       </c>
     </row>
     <row r="25">
@@ -3382,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>229131.3412073806</v>
+        <v>-204858.9574832974</v>
       </c>
       <c r="E25" t="n">
-        <v>229131.3412073806</v>
+        <v>-204858.9574832974</v>
       </c>
     </row>
     <row r="26">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>229131.3412073806</v>
+        <v>-164691.5984618353</v>
       </c>
       <c r="E26" t="n">
-        <v>229131.3412073806</v>
+        <v>-164691.5984618353</v>
       </c>
     </row>
     <row r="27">
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>229131.3412073806</v>
+        <v>-126220.8749468044</v>
       </c>
       <c r="E27" t="n">
-        <v>229131.3412073806</v>
+        <v>-126220.8749468044</v>
       </c>
     </row>
     <row r="28">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>229131.3412073806</v>
+        <v>-89477.01557026859</v>
       </c>
       <c r="E28" t="n">
-        <v>229131.3412073806</v>
+        <v>-89477.01557026859</v>
       </c>
     </row>
     <row r="29">
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229131.3412073806</v>
+        <v>-54491.4850697356</v>
       </c>
       <c r="E29" t="n">
-        <v>229131.3412073806</v>
+        <v>-54491.4850697356</v>
       </c>
     </row>
     <row r="30">
@@ -3467,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>229131.3412073806</v>
+        <v>-21295.83516658533</v>
       </c>
       <c r="E30" t="n">
-        <v>229131.3412073806</v>
+        <v>-21295.83516658533</v>
       </c>
     </row>
     <row r="31">
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>229131.3412073806</v>
+        <v>10079.32977584002</v>
       </c>
       <c r="E31" t="n">
-        <v>229131.3412073806</v>
+        <v>10079.32977584002</v>
       </c>
     </row>
     <row r="32">
@@ -3501,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>229131.3412073806</v>
+        <v>39605.23005599549</v>
       </c>
       <c r="E32" t="n">
-        <v>229131.3412073806</v>
+        <v>39605.23005599549</v>
       </c>
     </row>
     <row r="33">
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>229131.3412073806</v>
+        <v>67255.60780758024</v>
       </c>
       <c r="E33" t="n">
-        <v>229131.3412073806</v>
+        <v>67255.60780758024</v>
       </c>
     </row>
     <row r="34">
@@ -3529,16 +3529,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>229131.3412073806</v>
+        <v>93007.23861970738</v>
       </c>
       <c r="E34" t="n">
-        <v>229131.3412073806</v>
+        <v>93007.23861970738</v>
       </c>
     </row>
     <row r="35">
@@ -3546,16 +3546,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>229131.3412073806</v>
+        <v>116840.2671223501</v>
       </c>
       <c r="E35" t="n">
-        <v>229131.3412073806</v>
+        <v>116840.2671223501</v>
       </c>
     </row>
     <row r="36">
@@ -3563,16 +3563,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>229131.3412073806</v>
+        <v>138738.387492983</v>
       </c>
       <c r="E36" t="n">
-        <v>229131.3412073806</v>
+        <v>138738.387492983</v>
       </c>
     </row>
     <row r="37">
@@ -3580,16 +3580,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>229131.3412073806</v>
+        <v>158688.8974412811</v>
       </c>
       <c r="E37" t="n">
-        <v>229131.3412073806</v>
+        <v>158688.8974412811</v>
       </c>
     </row>
     <row r="38">
@@ -3597,16 +3597,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>146494.8412073806</v>
+        <v>176682.6580530941</v>
       </c>
       <c r="E38" t="n">
-        <v>146494.8412073806</v>
+        <v>176682.6580530941</v>
       </c>
     </row>
     <row r="39">
@@ -3614,16 +3614,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>63858.34120738057</v>
+        <v>192713.9922956977</v>
       </c>
       <c r="E39" t="n">
-        <v>63858.34120738057</v>
+        <v>192713.9922956977</v>
       </c>
     </row>
     <row r="40">
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-18778.15879261943</v>
+        <v>206780.5525959648</v>
       </c>
       <c r="E40" t="n">
-        <v>-18778.15879261943</v>
+        <v>206780.5525959648</v>
       </c>
     </row>
     <row r="41">
@@ -3654,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-101414.6587926194</v>
+        <v>218883.1834190456</v>
       </c>
       <c r="E41" t="n">
-        <v>-101414.6587926194</v>
+        <v>218883.1834190456</v>
       </c>
     </row>
     <row r="42">
@@ -3671,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-184051.1587926194</v>
+        <v>229025.7989532273</v>
       </c>
       <c r="E42" t="n">
-        <v>-184051.1587926194</v>
+        <v>229025.7989532273</v>
       </c>
     </row>
     <row r="43">
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-266687.6587926195</v>
+        <v>237215.2895685186</v>
       </c>
       <c r="E43" t="n">
-        <v>-266687.6587926195</v>
+        <v>237215.2895685186</v>
       </c>
     </row>
     <row r="44">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-349324.1587926195</v>
+        <v>243461.46429649</v>
       </c>
       <c r="E44" t="n">
-        <v>-349324.1587926195</v>
+        <v>243461.46429649</v>
       </c>
     </row>
     <row r="45">
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-431960.6587926195</v>
+        <v>247777.0306881946</v>
       </c>
       <c r="E45" t="n">
-        <v>-431960.6587926195</v>
+        <v>247777.0306881946</v>
       </c>
     </row>
     <row r="46">
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-514597.1587926195</v>
+        <v>250177.6084174998</v>
       </c>
       <c r="E46" t="n">
-        <v>-514597.1587926195</v>
+        <v>250177.6084174998</v>
       </c>
     </row>
     <row r="47">
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-597233.6587926194</v>
+        <v>250681.7691394868</v>
       </c>
       <c r="E47" t="n">
-        <v>-597233.6587926194</v>
+        <v>250681.7691394868</v>
       </c>
     </row>
     <row r="48">
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-597233.6587926195</v>
+        <v>249311.0924875733</v>
       </c>
       <c r="E48" t="n">
-        <v>-597233.6587926195</v>
+        <v>249311.0924875733</v>
       </c>
     </row>
     <row r="49">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-597233.6587926195</v>
+        <v>246090.2266867131</v>
       </c>
       <c r="E49" t="n">
-        <v>-597233.6587926195</v>
+        <v>246090.2266867131</v>
       </c>
     </row>
     <row r="50">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-597233.6587926195</v>
+        <v>241046.9419731072</v>
       </c>
       <c r="E50" t="n">
-        <v>-597233.6587926195</v>
+        <v>241046.9419731072</v>
       </c>
     </row>
     <row r="51">
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-597233.6587926195</v>
+        <v>234212.165680286</v>
       </c>
       <c r="E51" t="n">
-        <v>-597233.6587926195</v>
+        <v>234212.165680286</v>
       </c>
     </row>
     <row r="52">
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-597233.6587926195</v>
+        <v>225619.9892761349</v>
       </c>
       <c r="E52" t="n">
-        <v>-597233.6587926195</v>
+        <v>225619.9892761349</v>
       </c>
     </row>
     <row r="53">
@@ -3858,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-597233.6587926196</v>
+        <v>215307.6395983475</v>
       </c>
       <c r="E53" t="n">
-        <v>-597233.6587926196</v>
+        <v>215307.6395983475</v>
       </c>
     </row>
     <row r="54">
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-597233.6587926195</v>
+        <v>203315.4088228871</v>
       </c>
       <c r="E54" t="n">
-        <v>-597233.6587926195</v>
+        <v>203315.4088228871</v>
       </c>
     </row>
     <row r="55">
@@ -3892,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-597233.6587926195</v>
+        <v>189686.5401141135</v>
       </c>
       <c r="E55" t="n">
-        <v>-597233.6587926195</v>
+        <v>189686.5401141135</v>
       </c>
     </row>
     <row r="56">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-597233.6587926195</v>
+        <v>174467.0682761715</v>
       </c>
       <c r="E56" t="n">
-        <v>-597233.6587926195</v>
+        <v>174467.0682761715</v>
       </c>
     </row>
     <row r="57">
@@ -3926,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-597233.6587926195</v>
+        <v>157705.6169158577</v>
       </c>
       <c r="E57" t="n">
-        <v>-597233.6587926195</v>
+        <v>157705.6169158577</v>
       </c>
     </row>
     <row r="58">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-597233.6587926195</v>
+        <v>139453.1555358223</v>
       </c>
       <c r="E58" t="n">
-        <v>-597233.6587926195</v>
+        <v>139453.1555358223</v>
       </c>
     </row>
     <row r="59">
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-597233.6587926195</v>
+        <v>119762.7215362009</v>
       </c>
       <c r="E59" t="n">
-        <v>-597233.6587926195</v>
+        <v>119762.7215362009</v>
       </c>
     </row>
     <row r="60">
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-597233.6587926195</v>
+        <v>98689.11327784215</v>
       </c>
       <c r="E60" t="n">
-        <v>-597233.6587926195</v>
+        <v>98689.11327784215</v>
       </c>
     </row>
     <row r="61">
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-597233.6587926194</v>
+        <v>76288.56114389547</v>
       </c>
       <c r="E61" t="n">
-        <v>-597233.6587926194</v>
+        <v>76288.56114389547</v>
       </c>
     </row>
     <row r="62">
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-597233.6587926194</v>
+        <v>52618.38394413234</v>
       </c>
       <c r="E62" t="n">
-        <v>-597233.6587926194</v>
+        <v>52618.38394413234</v>
       </c>
     </row>
     <row r="63">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-597233.6587926194</v>
+        <v>27736.63807124921</v>
       </c>
       <c r="E63" t="n">
-        <v>-597233.6587926194</v>
+        <v>27736.63807124921</v>
       </c>
     </row>
     <row r="64">
@@ -4045,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-597233.6587926194</v>
+        <v>1701.766585302015</v>
       </c>
       <c r="E64" t="n">
-        <v>-597233.6587926194</v>
+        <v>1701.766585302015</v>
       </c>
     </row>
     <row r="65">
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-597233.6587926194</v>
+        <v>-25427.74507584912</v>
       </c>
       <c r="E65" t="n">
-        <v>-597233.6587926194</v>
+        <v>-25427.74507584912</v>
       </c>
     </row>
     <row r="66">
@@ -4079,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-597233.6587926196</v>
+        <v>-53593.70073059961</v>
       </c>
       <c r="E66" t="n">
-        <v>-597233.6587926196</v>
+        <v>-53593.70073059961</v>
       </c>
     </row>
     <row r="67">
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-597233.6587926196</v>
+        <v>-82738.50720593246</v>
       </c>
       <c r="E67" t="n">
-        <v>-597233.6587926196</v>
+        <v>-82738.50720593246</v>
       </c>
     </row>
     <row r="68">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-597233.6587926196</v>
+        <v>-112805.4658683507</v>
       </c>
       <c r="E68" t="n">
-        <v>-597233.6587926196</v>
+        <v>-112805.4658683507</v>
       </c>
     </row>
     <row r="69">
@@ -4130,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-143739.0385169265</v>
       </c>
       <c r="E69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-143739.0385169265</v>
       </c>
     </row>
     <row r="70">
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-175485.0851415705</v>
       </c>
       <c r="E70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-175485.0851415705</v>
       </c>
     </row>
     <row r="71">
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-207991.0719326319</v>
       </c>
       <c r="E71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-207991.0719326319</v>
       </c>
     </row>
     <row r="72">
@@ -4181,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-241206.2487483947</v>
       </c>
       <c r="E72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-241206.2487483947</v>
       </c>
     </row>
   </sheetData>
@@ -4244,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1574775.157417437</v>
       </c>
       <c r="E2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1574775.157417437</v>
       </c>
     </row>
     <row r="3">
@@ -4261,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1493328.645141107</v>
       </c>
       <c r="E3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1493328.645141107</v>
       </c>
     </row>
     <row r="4">
@@ -4278,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1412069.007411046</v>
       </c>
       <c r="E4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1412069.007411046</v>
       </c>
     </row>
     <row r="5">
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1331095.451797361</v>
       </c>
       <c r="E5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1331095.451797361</v>
       </c>
     </row>
     <row r="6">
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1250540.90269236</v>
       </c>
       <c r="E6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1250540.90269236</v>
       </c>
     </row>
     <row r="7">
@@ -4329,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1170575.482493301</v>
       </c>
       <c r="E7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1170575.482493301</v>
       </c>
     </row>
     <row r="8">
@@ -4346,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1091407.629926246</v>
       </c>
       <c r="E8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1091407.629926246</v>
       </c>
     </row>
     <row r="9">
@@ -4363,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1013282.225587376</v>
       </c>
       <c r="E9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1013282.225587376</v>
       </c>
     </row>
     <row r="10">
@@ -4380,10 +4380,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-936475.3829159066</v>
       </c>
       <c r="E10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-936475.3829159066</v>
       </c>
     </row>
     <row r="11">
@@ -4397,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-861285.9199496355</v>
       </c>
       <c r="E11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-861285.9199496355</v>
       </c>
     </row>
     <row r="12">
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-788023.8985280526</v>
       </c>
       <c r="E12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-788023.8985280526</v>
       </c>
     </row>
     <row r="13">
@@ -4431,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-716996.9489310556</v>
       </c>
       <c r="E13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-716996.9489310556</v>
       </c>
     </row>
     <row r="14">
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-648495.3456000848</v>
       </c>
       <c r="E14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-648495.3456000848</v>
       </c>
     </row>
     <row r="15">
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-582776.9364989805</v>
       </c>
       <c r="E15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-582776.9364989805</v>
       </c>
     </row>
     <row r="16">
@@ -4482,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-520053.0461863776</v>
       </c>
       <c r="E16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-520053.0461863776</v>
       </c>
     </row>
     <row r="17">
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-460476.3788078837</v>
       </c>
       <c r="E17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-460476.3788078837</v>
       </c>
     </row>
     <row r="18">
@@ -4516,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-404131.7625305172</v>
       </c>
       <c r="E18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-404131.7625305172</v>
       </c>
     </row>
     <row r="19">
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-351030.329436294</v>
       </c>
       <c r="E19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-351030.329436294</v>
       </c>
     </row>
     <row r="20">
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>63858.34120738057</v>
+        <v>-301107.4451035304</v>
       </c>
       <c r="E20" t="n">
-        <v>63858.34120738057</v>
+        <v>-301107.4451035304</v>
       </c>
     </row>
     <row r="21">
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146494.8412073806</v>
+        <v>-254224.4191047944</v>
       </c>
       <c r="E21" t="n">
-        <v>146494.8412073806</v>
+        <v>-254224.4191047944</v>
       </c>
     </row>
     <row r="22">
@@ -4584,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>229131.3412073806</v>
+        <v>-210173.766261071</v>
       </c>
       <c r="E22" t="n">
-        <v>229131.3412073806</v>
+        <v>-210173.766261071</v>
       </c>
     </row>
     <row r="23">
@@ -4601,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229131.3412073806</v>
+        <v>-168687.5677043034</v>
       </c>
       <c r="E23" t="n">
-        <v>229131.3412073806</v>
+        <v>-168687.5677043034</v>
       </c>
     </row>
     <row r="24">
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>229131.3412073806</v>
+        <v>-129448.3131980332</v>
       </c>
       <c r="E24" t="n">
-        <v>229131.3412073806</v>
+        <v>-129448.3131980332</v>
       </c>
     </row>
     <row r="25">
@@ -4635,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>229131.3412073806</v>
+        <v>-92101.49808091953</v>
       </c>
       <c r="E25" t="n">
-        <v>229131.3412073806</v>
+        <v>-92101.49808091953</v>
       </c>
     </row>
     <row r="26">
@@ -4652,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>229131.3412073806</v>
+        <v>-56269.20035600742</v>
       </c>
       <c r="E26" t="n">
-        <v>229131.3412073806</v>
+        <v>-56269.20035600742</v>
       </c>
     </row>
     <row r="27">
@@ -4669,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>229131.3412073806</v>
+        <v>-21563.87189865635</v>
       </c>
       <c r="E27" t="n">
-        <v>229131.3412073806</v>
+        <v>-21563.87189865635</v>
       </c>
     </row>
     <row r="28">
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>229131.3412073806</v>
+        <v>12398.36505397764</v>
       </c>
       <c r="E28" t="n">
-        <v>229131.3412073806</v>
+        <v>12398.36505397764</v>
       </c>
     </row>
     <row r="29">
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229131.3412073806</v>
+        <v>45985.5290668323</v>
       </c>
       <c r="E29" t="n">
-        <v>229131.3412073806</v>
+        <v>45985.5290668323</v>
       </c>
     </row>
     <row r="30">
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>229131.3412073806</v>
+        <v>79539.18804620764</v>
       </c>
       <c r="E30" t="n">
-        <v>229131.3412073806</v>
+        <v>79539.18804620764</v>
       </c>
     </row>
     <row r="31">
@@ -4737,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>229131.3412073806</v>
+        <v>113365.816101511</v>
       </c>
       <c r="E31" t="n">
-        <v>229131.3412073806</v>
+        <v>113365.816101511</v>
       </c>
     </row>
     <row r="32">
@@ -4754,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>229131.3412073806</v>
+        <v>147730.3065374002</v>
       </c>
       <c r="E32" t="n">
-        <v>229131.3412073806</v>
+        <v>147730.3065374002</v>
       </c>
     </row>
     <row r="33">
@@ -4771,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>229131.3412073806</v>
+        <v>182851.7111958952</v>
       </c>
       <c r="E33" t="n">
-        <v>229131.3412073806</v>
+        <v>182851.7111958952</v>
       </c>
     </row>
     <row r="34">
@@ -4782,16 +4782,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>229131.3412073806</v>
+        <v>218901.1524300176</v>
       </c>
       <c r="E34" t="n">
-        <v>229131.3412073806</v>
+        <v>218901.1524300176</v>
       </c>
     </row>
     <row r="35">
@@ -4799,16 +4799,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>229131.3412073806</v>
+        <v>256001.7496665003</v>
       </c>
       <c r="E35" t="n">
-        <v>229131.3412073806</v>
+        <v>256001.7496665003</v>
       </c>
     </row>
     <row r="36">
@@ -4816,16 +4816,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>229131.3412073806</v>
+        <v>294230.3215241649</v>
       </c>
       <c r="E36" t="n">
-        <v>229131.3412073806</v>
+        <v>294230.3215241649</v>
       </c>
     </row>
     <row r="37">
@@ -4833,16 +4833,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>229131.3412073806</v>
+        <v>333620.5683512902</v>
       </c>
       <c r="E37" t="n">
-        <v>229131.3412073806</v>
+        <v>333620.5683512902</v>
       </c>
     </row>
     <row r="38">
@@ -4850,16 +4850,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>146494.8412073806</v>
+        <v>333115.4084580579</v>
       </c>
       <c r="E38" t="n">
-        <v>146494.8412073806</v>
+        <v>333115.4084580579</v>
       </c>
     </row>
     <row r="39">
@@ -4867,16 +4867,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>63858.34120738057</v>
+        <v>333728.132297972</v>
       </c>
       <c r="E39" t="n">
-        <v>63858.34120738057</v>
+        <v>333728.132297972</v>
       </c>
     </row>
     <row r="40">
@@ -4890,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-18778.15879261943</v>
+        <v>335392.0492783712</v>
       </c>
       <c r="E40" t="n">
-        <v>-18778.15879261943</v>
+        <v>335392.0492783712</v>
       </c>
     </row>
     <row r="41">
@@ -4907,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-101414.6587926194</v>
+        <v>338018.3279010862</v>
       </c>
       <c r="E41" t="n">
-        <v>-101414.6587926194</v>
+        <v>338018.3279010862</v>
       </c>
     </row>
     <row r="42">
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-184051.1587926194</v>
+        <v>341501.7673677847</v>
       </c>
       <c r="E42" t="n">
-        <v>-184051.1587926194</v>
+        <v>341501.7673677847</v>
       </c>
     </row>
     <row r="43">
@@ -4941,10 +4941,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-266687.6587926195</v>
+        <v>345726.2834756192</v>
       </c>
       <c r="E43" t="n">
-        <v>-266687.6587926195</v>
+        <v>345726.2834756192</v>
       </c>
     </row>
     <row r="44">
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-349324.1587926195</v>
+        <v>350569.939733949</v>
       </c>
       <c r="E44" t="n">
-        <v>-349324.1587926195</v>
+        <v>350569.939733949</v>
       </c>
     </row>
     <row r="45">
@@ -4975,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-431960.6587926195</v>
+        <v>355909.4028238468</v>
       </c>
       <c r="E45" t="n">
-        <v>-431960.6587926195</v>
+        <v>355909.4028238468</v>
       </c>
     </row>
     <row r="46">
@@ -4992,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-514597.1587926195</v>
+        <v>361623.7471093584</v>
       </c>
       <c r="E46" t="n">
-        <v>-514597.1587926195</v>
+        <v>361623.7471093584</v>
       </c>
     </row>
     <row r="47">
@@ -5009,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-597233.6587926194</v>
+        <v>367597.5738923263</v>
       </c>
       <c r="E47" t="n">
-        <v>-597233.6587926194</v>
+        <v>367597.5738923263</v>
       </c>
     </row>
     <row r="48">
@@ -5026,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-597233.6587926195</v>
+        <v>373723.4461589451</v>
       </c>
       <c r="E48" t="n">
-        <v>-597233.6587926195</v>
+        <v>373723.4461589451</v>
       </c>
     </row>
     <row r="49">
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-597233.6587926195</v>
+        <v>379903.6679945634</v>
       </c>
       <c r="E49" t="n">
-        <v>-597233.6587926195</v>
+        <v>379903.6679945634</v>
       </c>
     </row>
     <row r="50">
@@ -5060,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-597233.6587926195</v>
+        <v>386051.4594754208</v>
       </c>
       <c r="E50" t="n">
-        <v>-597233.6587926195</v>
+        <v>386051.4594754208</v>
       </c>
     </row>
     <row r="51">
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-597233.6587926195</v>
+        <v>392091.5929398129</v>
       </c>
       <c r="E51" t="n">
-        <v>-597233.6587926195</v>
+        <v>392091.5929398129</v>
       </c>
     </row>
     <row r="52">
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-597233.6587926195</v>
+        <v>397960.5656710424</v>
       </c>
       <c r="E52" t="n">
-        <v>-597233.6587926195</v>
+        <v>397960.5656710424</v>
       </c>
     </row>
     <row r="53">
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-597233.6587926196</v>
+        <v>403606.3879734536</v>
       </c>
       <c r="E53" t="n">
-        <v>-597233.6587926196</v>
+        <v>403606.3879734536</v>
       </c>
     </row>
     <row r="54">
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-597233.6587926195</v>
+        <v>408988.06528844</v>
       </c>
       <c r="E54" t="n">
-        <v>-597233.6587926195</v>
+        <v>408988.06528844</v>
       </c>
     </row>
     <row r="55">
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-597233.6587926195</v>
+        <v>414074.8493098937</v>
       </c>
       <c r="E55" t="n">
-        <v>-597233.6587926195</v>
+        <v>414074.8493098937</v>
       </c>
     </row>
     <row r="56">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-597233.6587926195</v>
+        <v>418845.326920054</v>
       </c>
       <c r="E56" t="n">
-        <v>-597233.6587926195</v>
+        <v>418845.326920054</v>
       </c>
     </row>
     <row r="57">
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-597233.6587926195</v>
+        <v>423286.4080030571</v>
       </c>
       <c r="E57" t="n">
-        <v>-597233.6587926195</v>
+        <v>423286.4080030571</v>
       </c>
     </row>
     <row r="58">
@@ -5196,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-597233.6587926195</v>
+        <v>386340.2645264518</v>
       </c>
       <c r="E58" t="n">
-        <v>-597233.6587926195</v>
+        <v>386340.2645264518</v>
       </c>
     </row>
     <row r="59">
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-597233.6587926195</v>
+        <v>349059.2643115844</v>
       </c>
       <c r="E59" t="n">
-        <v>-597233.6587926195</v>
+        <v>349059.2643115844</v>
       </c>
     </row>
     <row r="60">
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-597233.6587926195</v>
+        <v>311448.9341177592</v>
       </c>
       <c r="E60" t="n">
-        <v>-597233.6587926195</v>
+        <v>311448.9341177592</v>
       </c>
     </row>
     <row r="61">
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-597233.6587926194</v>
+        <v>273518.9783981589</v>
       </c>
       <c r="E61" t="n">
-        <v>-597233.6587926194</v>
+        <v>273518.9783981589</v>
       </c>
     </row>
     <row r="62">
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-597233.6587926194</v>
+        <v>235282.3725923493</v>
       </c>
       <c r="E62" t="n">
-        <v>-597233.6587926194</v>
+        <v>235282.3725923493</v>
       </c>
     </row>
     <row r="63">
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-597233.6587926194</v>
+        <v>196754.5432498411</v>
       </c>
       <c r="E63" t="n">
-        <v>-597233.6587926194</v>
+        <v>196754.5432498411</v>
       </c>
     </row>
     <row r="64">
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-597233.6587926194</v>
+        <v>157952.6417005155</v>
       </c>
       <c r="E64" t="n">
-        <v>-597233.6587926194</v>
+        <v>157952.6417005155</v>
       </c>
     </row>
     <row r="65">
@@ -5315,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-597233.6587926194</v>
+        <v>118894.9134062042</v>
       </c>
       <c r="E65" t="n">
-        <v>-597233.6587926194</v>
+        <v>118894.9134062042</v>
       </c>
     </row>
     <row r="66">
@@ -5332,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-597233.6587926196</v>
+        <v>79600.16150095375</v>
       </c>
       <c r="E66" t="n">
-        <v>-597233.6587926196</v>
+        <v>79600.16150095375</v>
       </c>
     </row>
     <row r="67">
@@ -5349,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-597233.6587926196</v>
+        <v>40087.30027995614</v>
       </c>
       <c r="E67" t="n">
-        <v>-597233.6587926196</v>
+        <v>40087.30027995614</v>
       </c>
     </row>
     <row r="68">
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-597233.6587926196</v>
+        <v>374.9924315377139</v>
       </c>
       <c r="E68" t="n">
-        <v>-597233.6587926196</v>
+        <v>374.9924315377139</v>
       </c>
     </row>
     <row r="69">
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-39518.63748427315</v>
       </c>
       <c r="E69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-39518.63748427315</v>
       </c>
     </row>
     <row r="70">
@@ -5400,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-79576.22153464973</v>
       </c>
       <c r="E70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-79576.22153464973</v>
       </c>
     </row>
     <row r="71">
@@ -5417,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-119781.3073853977</v>
       </c>
       <c r="E71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-119781.3073853977</v>
       </c>
     </row>
     <row r="72">
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-160118.4661550825</v>
       </c>
       <c r="E72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-160118.4661550825</v>
       </c>
     </row>
   </sheetData>
@@ -5497,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1581428.782831864</v>
       </c>
       <c r="E2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1581428.782831864</v>
       </c>
     </row>
     <row r="3">
@@ -5514,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1499374.475573824</v>
       </c>
       <c r="E3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1499374.475573824</v>
       </c>
     </row>
     <row r="4">
@@ -5531,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1417320.168315791</v>
       </c>
       <c r="E4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1417320.168315791</v>
       </c>
     </row>
     <row r="5">
@@ -5548,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1335265.861058046</v>
       </c>
       <c r="E5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1335265.861058046</v>
       </c>
     </row>
     <row r="6">
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1253211.553807687</v>
       </c>
       <c r="E6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1253211.553807687</v>
       </c>
     </row>
     <row r="7">
@@ -5582,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1171157.246695571</v>
       </c>
       <c r="E7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1171157.246695571</v>
       </c>
     </row>
     <row r="8">
@@ -5599,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1089102.941518932</v>
       </c>
       <c r="E8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1089102.941518932</v>
       </c>
     </row>
     <row r="9">
@@ -5616,10 +5616,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1007048.657045313</v>
       </c>
       <c r="E9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1007048.657045313</v>
       </c>
     </row>
     <row r="10">
@@ -5633,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-924994.5450198222</v>
       </c>
       <c r="E10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-924994.5450198222</v>
       </c>
     </row>
     <row r="11">
@@ -5650,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-842941.5711211492</v>
       </c>
       <c r="E11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-842941.5711211492</v>
       </c>
     </row>
     <row r="12">
@@ -5667,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-760894.6435393649</v>
       </c>
       <c r="E12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-760894.6435393649</v>
       </c>
     </row>
     <row r="13">
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-678873.9478261096</v>
       </c>
       <c r="E13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-678873.9478261096</v>
       </c>
     </row>
     <row r="14">
@@ -5701,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-596947.430350052</v>
       </c>
       <c r="E14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-596947.430350052</v>
       </c>
     </row>
     <row r="15">
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-515304.1376907857</v>
       </c>
       <c r="E15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-515304.1376907857</v>
       </c>
     </row>
     <row r="16">
@@ -5735,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-434382.3315441758</v>
       </c>
       <c r="E16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-434382.3315441758</v>
       </c>
     </row>
     <row r="17">
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-355033.4966535402</v>
       </c>
       <c r="E17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-355033.4966535402</v>
       </c>
     </row>
     <row r="18">
@@ -5769,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-278647.7747735147</v>
       </c>
       <c r="E18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-278647.7747735147</v>
       </c>
     </row>
     <row r="19">
@@ -5786,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-207127.7131386339</v>
       </c>
       <c r="E19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-207127.7131386339</v>
       </c>
     </row>
     <row r="20">
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>63858.34120738057</v>
+        <v>-142629.5293581588</v>
       </c>
       <c r="E20" t="n">
-        <v>63858.34120738057</v>
+        <v>-142629.5293581588</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146494.8412073806</v>
+        <v>-87105.21905769047</v>
       </c>
       <c r="E21" t="n">
-        <v>146494.8412073806</v>
+        <v>-87105.21905769047</v>
       </c>
     </row>
     <row r="22">
@@ -5837,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>229131.3412073806</v>
+        <v>-41808.79251220557</v>
       </c>
       <c r="E22" t="n">
-        <v>229131.3412073806</v>
+        <v>-41808.79251220557</v>
       </c>
     </row>
     <row r="23">
@@ -5854,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229131.3412073806</v>
+        <v>-6976.816036837001</v>
       </c>
       <c r="E23" t="n">
-        <v>229131.3412073806</v>
+        <v>-6976.816036837001</v>
       </c>
     </row>
     <row r="24">
@@ -5871,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>229131.3412073806</v>
+        <v>18185.87140606303</v>
       </c>
       <c r="E24" t="n">
-        <v>229131.3412073806</v>
+        <v>18185.87140606303</v>
       </c>
     </row>
     <row r="25">
@@ -5888,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>229131.3412073806</v>
+        <v>35236.31443339362</v>
       </c>
       <c r="E25" t="n">
-        <v>229131.3412073806</v>
+        <v>35236.31443339362</v>
       </c>
     </row>
     <row r="26">
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>229131.3412073806</v>
+        <v>46083.75312454923</v>
       </c>
       <c r="E26" t="n">
-        <v>229131.3412073806</v>
+        <v>46083.75312454923</v>
       </c>
     </row>
     <row r="27">
@@ -5922,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>229131.3412073806</v>
+        <v>52613.70272087678</v>
       </c>
       <c r="E27" t="n">
-        <v>229131.3412073806</v>
+        <v>52613.70272087678</v>
       </c>
     </row>
     <row r="28">
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>229131.3412073806</v>
+        <v>56463.37494208349</v>
       </c>
       <c r="E28" t="n">
-        <v>229131.3412073806</v>
+        <v>56463.37494208349</v>
       </c>
     </row>
     <row r="29">
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229131.3412073806</v>
+        <v>58978.57258058485</v>
       </c>
       <c r="E29" t="n">
-        <v>229131.3412073806</v>
+        <v>58978.57258058485</v>
       </c>
     </row>
     <row r="30">
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>229131.3412073806</v>
+        <v>61311.9902077697</v>
       </c>
       <c r="E30" t="n">
-        <v>229131.3412073806</v>
+        <v>61311.9902077697</v>
       </c>
     </row>
     <row r="31">
@@ -5990,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>229131.3412073806</v>
+        <v>64587.42220395282</v>
       </c>
       <c r="E31" t="n">
-        <v>229131.3412073806</v>
+        <v>64587.42220395282</v>
       </c>
     </row>
     <row r="32">
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>229131.3412073806</v>
+        <v>70048.09045051559</v>
       </c>
       <c r="E32" t="n">
-        <v>229131.3412073806</v>
+        <v>70048.09045051559</v>
       </c>
     </row>
     <row r="33">
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>229131.3412073806</v>
+        <v>79121.05865856231</v>
       </c>
       <c r="E33" t="n">
-        <v>229131.3412073806</v>
+        <v>79121.05865856231</v>
       </c>
     </row>
     <row r="34">
@@ -6035,16 +6035,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>229131.3412073806</v>
+        <v>93359.90275130401</v>
       </c>
       <c r="E34" t="n">
-        <v>229131.3412073806</v>
+        <v>93359.90275130401</v>
       </c>
     </row>
     <row r="35">
@@ -6052,16 +6052,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>229131.3412073806</v>
+        <v>114270.9091751376</v>
       </c>
       <c r="E35" t="n">
-        <v>229131.3412073806</v>
+        <v>114270.9091751376</v>
       </c>
     </row>
     <row r="36">
@@ -6069,16 +6069,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>229131.3412073806</v>
+        <v>143072.47212799</v>
       </c>
       <c r="E36" t="n">
-        <v>229131.3412073806</v>
+        <v>143072.47212799</v>
       </c>
     </row>
     <row r="37">
@@ -6086,16 +6086,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>229131.3412073806</v>
+        <v>180464.7267382773</v>
       </c>
       <c r="E37" t="n">
-        <v>229131.3412073806</v>
+        <v>180464.7267382773</v>
       </c>
     </row>
     <row r="38">
@@ -6103,16 +6103,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>146494.8412073806</v>
+        <v>185430.98729557</v>
       </c>
       <c r="E38" t="n">
-        <v>146494.8412073806</v>
+        <v>185430.98729557</v>
       </c>
     </row>
     <row r="39">
@@ -6120,16 +6120,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>63858.34120738057</v>
+        <v>198371.8492303328</v>
       </c>
       <c r="E39" t="n">
-        <v>63858.34120738057</v>
+        <v>198371.8492303328</v>
       </c>
     </row>
     <row r="40">
@@ -6143,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-18778.15879261943</v>
+        <v>218048.0348944605</v>
       </c>
       <c r="E40" t="n">
-        <v>-18778.15879261943</v>
+        <v>218048.0348944605</v>
       </c>
     </row>
     <row r="41">
@@ -6160,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-101414.6587926194</v>
+        <v>242812.9548709714</v>
       </c>
       <c r="E41" t="n">
-        <v>-101414.6587926194</v>
+        <v>242812.9548709714</v>
       </c>
     </row>
     <row r="42">
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-184051.1587926194</v>
+        <v>270823.5367753517</v>
       </c>
       <c r="E42" t="n">
-        <v>-184051.1587926194</v>
+        <v>270823.5367753517</v>
       </c>
     </row>
     <row r="43">
@@ -6194,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-266687.6587926195</v>
+        <v>300238.681453769</v>
       </c>
       <c r="E43" t="n">
-        <v>-266687.6587926195</v>
+        <v>300238.681453769</v>
       </c>
     </row>
     <row r="44">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-349324.1587926195</v>
+        <v>329381.2245168947</v>
       </c>
       <c r="E44" t="n">
-        <v>-349324.1587926195</v>
+        <v>329381.2245168947</v>
       </c>
     </row>
     <row r="45">
@@ -6228,10 +6228,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-431960.6587926195</v>
+        <v>356855.3868171869</v>
       </c>
       <c r="E45" t="n">
-        <v>-431960.6587926195</v>
+        <v>356855.3868171869</v>
       </c>
     </row>
     <row r="46">
@@ -6245,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-514597.1587926195</v>
+        <v>381619.7332698759</v>
       </c>
       <c r="E46" t="n">
-        <v>-514597.1587926195</v>
+        <v>381619.7332698759</v>
       </c>
     </row>
     <row r="47">
@@ -6262,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-597233.6587926194</v>
+        <v>403017.2850727546</v>
       </c>
       <c r="E47" t="n">
-        <v>-597233.6587926194</v>
+        <v>403017.2850727546</v>
       </c>
     </row>
     <row r="48">
@@ -6279,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-597233.6587926195</v>
+        <v>420764.6433451269</v>
       </c>
       <c r="E48" t="n">
-        <v>-597233.6587926195</v>
+        <v>420764.6433451269</v>
       </c>
     </row>
     <row r="49">
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-597233.6587926195</v>
+        <v>434904.4160603043</v>
       </c>
       <c r="E49" t="n">
-        <v>-597233.6587926195</v>
+        <v>434904.4160603043</v>
       </c>
     </row>
     <row r="50">
@@ -6313,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-597233.6587926195</v>
+        <v>445729.9964311767</v>
       </c>
       <c r="E50" t="n">
-        <v>-597233.6587926195</v>
+        <v>445729.9964311767</v>
       </c>
     </row>
     <row r="51">
@@ -6330,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-597233.6587926195</v>
+        <v>453696.3076874209</v>
       </c>
       <c r="E51" t="n">
-        <v>-597233.6587926195</v>
+        <v>453696.3076874209</v>
       </c>
     </row>
     <row r="52">
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-597233.6587926195</v>
+        <v>459331.7840729346</v>
       </c>
       <c r="E52" t="n">
-        <v>-597233.6587926195</v>
+        <v>459331.7840729346</v>
       </c>
     </row>
     <row r="53">
@@ -6364,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-597233.6587926196</v>
+        <v>463164.5542352356</v>
       </c>
       <c r="E53" t="n">
-        <v>-597233.6587926196</v>
+        <v>463164.5542352356</v>
       </c>
     </row>
     <row r="54">
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-597233.6587926195</v>
+        <v>465670.524021601</v>
       </c>
       <c r="E54" t="n">
-        <v>-597233.6587926195</v>
+        <v>465670.524021601</v>
       </c>
     </row>
     <row r="55">
@@ -6398,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-597233.6587926195</v>
+        <v>467244.9532894507</v>
       </c>
       <c r="E55" t="n">
-        <v>-597233.6587926195</v>
+        <v>467244.9532894507</v>
       </c>
     </row>
     <row r="56">
@@ -6415,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-597233.6587926195</v>
+        <v>468194.2008654046</v>
       </c>
       <c r="E56" t="n">
-        <v>-597233.6587926195</v>
+        <v>468194.2008654046</v>
       </c>
     </row>
     <row r="57">
@@ -6432,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-597233.6587926195</v>
+        <v>468741.6454493783</v>
       </c>
       <c r="E57" t="n">
-        <v>-597233.6587926195</v>
+        <v>468741.6454493783</v>
       </c>
     </row>
     <row r="58">
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-597233.6587926195</v>
+        <v>427989.3768255718</v>
       </c>
       <c r="E58" t="n">
-        <v>-597233.6587926195</v>
+        <v>427989.3768255718</v>
       </c>
     </row>
     <row r="59">
@@ -6466,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-597233.6587926195</v>
+        <v>387090.3875315714</v>
       </c>
       <c r="E59" t="n">
-        <v>-597233.6587926195</v>
+        <v>387090.3875315714</v>
       </c>
     </row>
     <row r="60">
@@ -6483,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-597233.6587926195</v>
+        <v>346107.7845243856</v>
       </c>
       <c r="E60" t="n">
-        <v>-597233.6587926195</v>
+        <v>346107.7845243856</v>
       </c>
     </row>
     <row r="61">
@@ -6500,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-597233.6587926194</v>
+        <v>305079.27091165</v>
       </c>
       <c r="E61" t="n">
-        <v>-597233.6587926194</v>
+        <v>305079.27091165</v>
       </c>
     </row>
     <row r="62">
@@ -6517,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-597233.6587926194</v>
+        <v>264026.4366846555</v>
       </c>
       <c r="E62" t="n">
-        <v>-597233.6587926194</v>
+        <v>264026.4366846555</v>
       </c>
     </row>
     <row r="63">
@@ -6534,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-597233.6587926194</v>
+        <v>222961.1569358739</v>
       </c>
       <c r="E63" t="n">
-        <v>-597233.6587926194</v>
+        <v>222961.1569358739</v>
       </c>
     </row>
     <row r="64">
@@ -6551,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-597233.6587926194</v>
+        <v>181889.7175345947</v>
       </c>
       <c r="E64" t="n">
-        <v>-597233.6587926194</v>
+        <v>181889.7175345947</v>
       </c>
     </row>
     <row r="65">
@@ -6568,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-597233.6587926194</v>
+        <v>140815.3261805602</v>
       </c>
       <c r="E65" t="n">
-        <v>-597233.6587926194</v>
+        <v>140815.3261805602</v>
       </c>
     </row>
     <row r="66">
@@ -6585,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-597233.6587926196</v>
+        <v>99739.56344700191</v>
       </c>
       <c r="E66" t="n">
-        <v>-597233.6587926196</v>
+        <v>99739.56344700191</v>
       </c>
     </row>
     <row r="67">
@@ -6602,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-597233.6587926196</v>
+        <v>58663.18246001197</v>
       </c>
       <c r="E67" t="n">
-        <v>-597233.6587926196</v>
+        <v>58663.18246001197</v>
       </c>
     </row>
     <row r="68">
@@ -6619,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-597233.6587926196</v>
+        <v>17586.53071383975</v>
       </c>
       <c r="E68" t="n">
-        <v>-597233.6587926196</v>
+        <v>17586.53071383975</v>
       </c>
     </row>
     <row r="69">
@@ -6636,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-23490.236334452</v>
       </c>
       <c r="E69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-23490.236334452</v>
       </c>
     </row>
     <row r="70">
@@ -6653,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-64567.05117328331</v>
       </c>
       <c r="E70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-64567.05117328331</v>
       </c>
     </row>
     <row r="71">
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-105643.8853093108</v>
       </c>
       <c r="E71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-105643.8853093108</v>
       </c>
     </row>
     <row r="72">
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-146720.7270429434</v>
       </c>
       <c r="E72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-146720.7270429434</v>
       </c>
     </row>
   </sheetData>
@@ -6750,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1582422.637671039</v>
       </c>
       <c r="E2" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1582422.637671039</v>
       </c>
     </row>
     <row r="3">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1500318.637671039</v>
       </c>
       <c r="E3" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1500318.637671039</v>
       </c>
     </row>
     <row r="4">
@@ -6784,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1418214.637671039</v>
       </c>
       <c r="E4" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1418214.637671039</v>
       </c>
     </row>
     <row r="5">
@@ -6801,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1336110.637671039</v>
       </c>
       <c r="E5" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1336110.637671039</v>
       </c>
     </row>
     <row r="6">
@@ -6818,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1254006.637671039</v>
       </c>
       <c r="E6" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1254006.637671039</v>
       </c>
     </row>
     <row r="7">
@@ -6835,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1171902.637671039</v>
       </c>
       <c r="E7" t="n">
-        <v>-597233.6587926192</v>
+        <v>-1171902.637671039</v>
       </c>
     </row>
     <row r="8">
@@ -6852,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1089798.637671039</v>
       </c>
       <c r="E8" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1089798.637671039</v>
       </c>
     </row>
     <row r="9">
@@ -6869,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1007694.637671039</v>
       </c>
       <c r="E9" t="n">
-        <v>-597233.6587926194</v>
+        <v>-1007694.637671039</v>
       </c>
     </row>
     <row r="10">
@@ -6886,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-925590.6376710387</v>
       </c>
       <c r="E10" t="n">
-        <v>-597233.6587926194</v>
+        <v>-925590.6376710387</v>
       </c>
     </row>
     <row r="11">
@@ -6903,10 +6903,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-843486.6376710387</v>
       </c>
       <c r="E11" t="n">
-        <v>-597233.6587926194</v>
+        <v>-843486.6376710387</v>
       </c>
     </row>
     <row r="12">
@@ -6920,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-761382.6376710387</v>
       </c>
       <c r="E12" t="n">
-        <v>-597233.6587926194</v>
+        <v>-761382.6376710387</v>
       </c>
     </row>
     <row r="13">
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-679278.6376710387</v>
       </c>
       <c r="E13" t="n">
-        <v>-514597.1587926195</v>
+        <v>-679278.6376710387</v>
       </c>
     </row>
     <row r="14">
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-597174.6376710386</v>
       </c>
       <c r="E14" t="n">
-        <v>-431960.6587926194</v>
+        <v>-597174.6376710386</v>
       </c>
     </row>
     <row r="15">
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-515070.6376710386</v>
       </c>
       <c r="E15" t="n">
-        <v>-349324.1587926195</v>
+        <v>-515070.6376710386</v>
       </c>
     </row>
     <row r="16">
@@ -6988,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-432966.6376710386</v>
       </c>
       <c r="E16" t="n">
-        <v>-266687.6587926194</v>
+        <v>-432966.6376710386</v>
       </c>
     </row>
     <row r="17">
@@ -7005,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-350862.6376710386</v>
       </c>
       <c r="E17" t="n">
-        <v>-184051.1587926194</v>
+        <v>-350862.6376710386</v>
       </c>
     </row>
     <row r="18">
@@ -7022,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-268758.6376710386</v>
       </c>
       <c r="E18" t="n">
-        <v>-101414.6587926194</v>
+        <v>-268758.6376710386</v>
       </c>
     </row>
     <row r="19">
@@ -7039,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-186654.6376710386</v>
       </c>
       <c r="E19" t="n">
-        <v>-18778.15879261943</v>
+        <v>-186654.6376710386</v>
       </c>
     </row>
     <row r="20">
@@ -7056,10 +7056,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>63858.34120738057</v>
+        <v>-104550.6376710386</v>
       </c>
       <c r="E20" t="n">
-        <v>63858.34120738057</v>
+        <v>-104550.6376710386</v>
       </c>
     </row>
     <row r="21">
@@ -7073,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146494.8412073806</v>
+        <v>-22446.63767103861</v>
       </c>
       <c r="E21" t="n">
-        <v>146494.8412073806</v>
+        <v>-22446.63767103861</v>
       </c>
     </row>
     <row r="22">
@@ -7090,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E22" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="23">
@@ -7107,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E23" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="24">
@@ -7124,10 +7124,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E24" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="25">
@@ -7141,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E25" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="26">
@@ -7158,10 +7158,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E26" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="27">
@@ -7175,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E27" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="28">
@@ -7192,10 +7192,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E28" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="29">
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E29" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="30">
@@ -7226,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E30" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="31">
@@ -7243,10 +7243,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E31" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="32">
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E32" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="33">
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E33" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="34">
@@ -7288,16 +7288,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E34" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="35">
@@ -7305,16 +7305,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E35" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="36">
@@ -7322,16 +7322,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E36" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="37">
@@ -7339,16 +7339,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
       <c r="E37" t="n">
-        <v>229131.3412073806</v>
+        <v>59657.36232896138</v>
       </c>
     </row>
     <row r="38">
@@ -7356,16 +7356,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>146494.8412073806</v>
+        <v>100709.3623289614</v>
       </c>
       <c r="E38" t="n">
-        <v>146494.8412073806</v>
+        <v>100709.3623289614</v>
       </c>
     </row>
     <row r="39">
@@ -7373,16 +7373,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>63858.34120738057</v>
+        <v>141761.3623289614</v>
       </c>
       <c r="E39" t="n">
-        <v>63858.34120738057</v>
+        <v>141761.3623289614</v>
       </c>
     </row>
     <row r="40">
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-18778.15879261943</v>
+        <v>182813.3623289614</v>
       </c>
       <c r="E40" t="n">
-        <v>-18778.15879261943</v>
+        <v>182813.3623289614</v>
       </c>
     </row>
     <row r="41">
@@ -7413,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-101414.6587926194</v>
+        <v>223865.3623289613</v>
       </c>
       <c r="E41" t="n">
-        <v>-101414.6587926194</v>
+        <v>223865.3623289613</v>
       </c>
     </row>
     <row r="42">
@@ -7430,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-184051.1587926194</v>
+        <v>264917.3623289614</v>
       </c>
       <c r="E42" t="n">
-        <v>-184051.1587926194</v>
+        <v>264917.3623289614</v>
       </c>
     </row>
     <row r="43">
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-266687.6587926195</v>
+        <v>305969.3623289613</v>
       </c>
       <c r="E43" t="n">
-        <v>-266687.6587926195</v>
+        <v>305969.3623289613</v>
       </c>
     </row>
     <row r="44">
@@ -7464,10 +7464,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-349324.1587926195</v>
+        <v>347021.3623289614</v>
       </c>
       <c r="E44" t="n">
-        <v>-349324.1587926195</v>
+        <v>347021.3623289614</v>
       </c>
     </row>
     <row r="45">
@@ -7481,10 +7481,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-431960.6587926195</v>
+        <v>388073.3623289613</v>
       </c>
       <c r="E45" t="n">
-        <v>-431960.6587926195</v>
+        <v>388073.3623289613</v>
       </c>
     </row>
     <row r="46">
@@ -7498,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-514597.1587926195</v>
+        <v>429125.3623289613</v>
       </c>
       <c r="E46" t="n">
-        <v>-514597.1587926195</v>
+        <v>429125.3623289613</v>
       </c>
     </row>
     <row r="47">
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-597233.6587926194</v>
+        <v>470177.3623289613</v>
       </c>
       <c r="E47" t="n">
-        <v>-597233.6587926194</v>
+        <v>470177.3623289613</v>
       </c>
     </row>
     <row r="48">
@@ -7532,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E48" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="49">
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
       <c r="E49" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
     </row>
     <row r="50">
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
       <c r="E50" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
     </row>
     <row r="51">
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
       <c r="E51" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289613</v>
       </c>
     </row>
     <row r="52">
@@ -7600,10 +7600,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E52" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="53">
@@ -7617,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-597233.6587926196</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E53" t="n">
-        <v>-597233.6587926196</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="54">
@@ -7634,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E54" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="55">
@@ -7651,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E55" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="56">
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E56" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="57">
@@ -7685,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
       <c r="E57" t="n">
-        <v>-597233.6587926195</v>
+        <v>470177.3623289614</v>
       </c>
     </row>
     <row r="58">
@@ -7702,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-597233.6587926195</v>
+        <v>429125.3623289614</v>
       </c>
       <c r="E58" t="n">
-        <v>-597233.6587926195</v>
+        <v>429125.3623289614</v>
       </c>
     </row>
     <row r="59">
@@ -7719,10 +7719,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-597233.6587926195</v>
+        <v>388073.3623289614</v>
       </c>
       <c r="E59" t="n">
-        <v>-597233.6587926195</v>
+        <v>388073.3623289614</v>
       </c>
     </row>
     <row r="60">
@@ -7736,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-597233.6587926195</v>
+        <v>347021.3623289614</v>
       </c>
       <c r="E60" t="n">
-        <v>-597233.6587926195</v>
+        <v>347021.3623289614</v>
       </c>
     </row>
     <row r="61">
@@ -7753,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-597233.6587926194</v>
+        <v>305969.3623289615</v>
       </c>
       <c r="E61" t="n">
-        <v>-597233.6587926194</v>
+        <v>305969.3623289615</v>
       </c>
     </row>
     <row r="62">
@@ -7770,10 +7770,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-597233.6587926194</v>
+        <v>264917.3623289615</v>
       </c>
       <c r="E62" t="n">
-        <v>-597233.6587926194</v>
+        <v>264917.3623289615</v>
       </c>
     </row>
     <row r="63">
@@ -7787,10 +7787,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-597233.6587926194</v>
+        <v>223865.3623289615</v>
       </c>
       <c r="E63" t="n">
-        <v>-597233.6587926194</v>
+        <v>223865.3623289615</v>
       </c>
     </row>
     <row r="64">
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-597233.6587926194</v>
+        <v>182813.3623289613</v>
       </c>
       <c r="E64" t="n">
-        <v>-597233.6587926194</v>
+        <v>182813.3623289613</v>
       </c>
     </row>
     <row r="65">
@@ -7821,10 +7821,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-597233.6587926194</v>
+        <v>141761.3623289613</v>
       </c>
       <c r="E65" t="n">
-        <v>-597233.6587926194</v>
+        <v>141761.3623289613</v>
       </c>
     </row>
     <row r="66">
@@ -7838,10 +7838,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-597233.6587926196</v>
+        <v>100709.3623289613</v>
       </c>
       <c r="E66" t="n">
-        <v>-597233.6587926196</v>
+        <v>100709.3623289613</v>
       </c>
     </row>
     <row r="67">
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-597233.6587926196</v>
+        <v>59657.36232896132</v>
       </c>
       <c r="E67" t="n">
-        <v>-597233.6587926196</v>
+        <v>59657.36232896132</v>
       </c>
     </row>
     <row r="68">
@@ -7872,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-597233.6587926196</v>
+        <v>18605.36232896132</v>
       </c>
       <c r="E68" t="n">
-        <v>-597233.6587926196</v>
+        <v>18605.36232896132</v>
       </c>
     </row>
     <row r="69">
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-22446.63767103868</v>
       </c>
       <c r="E69" t="n">
-        <v>-597233.6587926196</v>
+        <v>-22446.63767103868</v>
       </c>
     </row>
     <row r="70">
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-63498.63767103868</v>
       </c>
       <c r="E70" t="n">
-        <v>-597233.6587926196</v>
+        <v>-63498.63767103868</v>
       </c>
     </row>
     <row r="71">
@@ -7923,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-104550.6376710387</v>
       </c>
       <c r="E71" t="n">
-        <v>-597233.6587926196</v>
+        <v>-104550.6376710387</v>
       </c>
     </row>
     <row r="72">
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-145602.6376710387</v>
       </c>
       <c r="E72" t="n">
-        <v>-597233.6587926196</v>
+        <v>-145602.6376710387</v>
       </c>
     </row>
   </sheetData>
@@ -8003,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-593723.7852704612</v>
+        <v>-1584394.933981213</v>
       </c>
       <c r="E2" t="n">
-        <v>-593723.7852704612</v>
+        <v>-1584394.933981213</v>
       </c>
     </row>
     <row r="3">
@@ -8020,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-591793.952621044</v>
+        <v>-1512031.718041794</v>
       </c>
       <c r="E3" t="n">
-        <v>-591793.952621044</v>
+        <v>-1512031.718041794</v>
       </c>
     </row>
     <row r="4">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-588448.5089842242</v>
+        <v>-1440884.037955896</v>
       </c>
       <c r="E4" t="n">
-        <v>-588448.5089842242</v>
+        <v>-1440884.037955896</v>
       </c>
     </row>
     <row r="5">
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-583023.0611377661</v>
+        <v>-1371018.741588894</v>
       </c>
       <c r="E5" t="n">
-        <v>-583023.0611377661</v>
+        <v>-1371018.741588894</v>
       </c>
     </row>
     <row r="6">
@@ -8071,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-574740.4454510482</v>
+        <v>-1302494.743517506</v>
       </c>
       <c r="E6" t="n">
-        <v>-574740.4454510482</v>
+        <v>-1302494.743517506</v>
       </c>
     </row>
     <row r="7">
@@ -8088,10 +8088,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-562771.2512539314</v>
+        <v>-1235363.192529202</v>
       </c>
       <c r="E7" t="n">
-        <v>-562771.2512539314</v>
+        <v>-1235363.192529202</v>
       </c>
     </row>
     <row r="8">
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-546317.0088053356</v>
+        <v>-1169667.907938877</v>
       </c>
       <c r="E8" t="n">
-        <v>-546317.0088053356</v>
+        <v>-1169667.907938877</v>
       </c>
     </row>
     <row r="9">
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-524704.3819361846</v>
+        <v>-1105446.022088855</v>
       </c>
       <c r="E9" t="n">
-        <v>-524704.3819361846</v>
+        <v>-1105446.022088855</v>
       </c>
     </row>
     <row r="10">
@@ -8139,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-497476.1324730854</v>
+        <v>-1042728.764836308</v>
       </c>
       <c r="E10" t="n">
-        <v>-497476.1324730854</v>
+        <v>-1042728.764836308</v>
       </c>
     </row>
     <row r="11">
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-464465.1630678852</v>
+        <v>-981542.3286370935</v>
       </c>
       <c r="E11" t="n">
-        <v>-464465.1630678852</v>
+        <v>-981542.3286370935</v>
       </c>
     </row>
     <row r="12">
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-425840.9014624947</v>
+        <v>-921908.7589299171</v>
       </c>
       <c r="E12" t="n">
-        <v>-425840.9014624947</v>
+        <v>-921908.7589299171</v>
       </c>
     </row>
     <row r="13">
@@ -8190,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-382121.5864045485</v>
+        <v>-863846.8228147497</v>
       </c>
       <c r="E13" t="n">
-        <v>-382121.5864045485</v>
+        <v>-863846.8228147497</v>
       </c>
     </row>
     <row r="14">
@@ -8207,10 +8207,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-334150.7217245464</v>
+        <v>-807372.8184878002</v>
       </c>
       <c r="E14" t="n">
-        <v>-334150.7217245464</v>
+        <v>-807372.8184878002</v>
       </c>
     </row>
     <row r="15">
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-283040.49507548</v>
+        <v>-752501.2976686859</v>
       </c>
       <c r="E15" t="n">
-        <v>-283040.49507548</v>
+        <v>-752501.2976686859</v>
       </c>
     </row>
     <row r="16">
@@ -8241,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-230088.9665524953</v>
+        <v>-699245.6826398001</v>
       </c>
       <c r="E16" t="n">
-        <v>-230088.9665524953</v>
+        <v>-699245.6826398001</v>
       </c>
     </row>
     <row r="17">
@@ -8258,10 +8258,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-176681.0084115498</v>
+        <v>-647618.768009601</v>
       </c>
       <c r="E17" t="n">
-        <v>-176681.0084115498</v>
+        <v>-647618.768009601</v>
       </c>
     </row>
     <row r="18">
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-124184.9424737652</v>
+        <v>-597633.1045890101</v>
       </c>
       <c r="E18" t="n">
-        <v>-124184.9424737652</v>
+        <v>-597633.1045890101</v>
       </c>
     </row>
     <row r="19">
@@ -8292,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-73857.21016928615</v>
+        <v>-549301.268672422</v>
       </c>
       <c r="E19" t="n">
-        <v>-73857.21016928615</v>
+        <v>-549301.268672422</v>
       </c>
     </row>
     <row r="20">
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-26766.04537911763</v>
+        <v>-502636.0245123409</v>
       </c>
       <c r="E20" t="n">
-        <v>-26766.04537911763</v>
+        <v>-502636.0245123409</v>
       </c>
     </row>
     <row r="21">
@@ -8326,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>16257.84267555602</v>
+        <v>-457650.3909395995</v>
       </c>
       <c r="E21" t="n">
-        <v>16257.84267555602</v>
+        <v>-457650.3909395995</v>
       </c>
     </row>
     <row r="22">
@@ -8343,10 +8343,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>54639.63582091204</v>
+        <v>-414357.6250473735</v>
       </c>
       <c r="E22" t="n">
-        <v>54639.63582091204</v>
+        <v>-414357.6250473735</v>
       </c>
     </row>
     <row r="23">
@@ -8360,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>88048.34442228926</v>
+        <v>-372771.136805526</v>
       </c>
       <c r="E23" t="n">
-        <v>88048.34442228926</v>
+        <v>-372771.136805526</v>
       </c>
     </row>
     <row r="24">
@@ -8377,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>116358.9629867641</v>
+        <v>-332904.3485972146</v>
       </c>
       <c r="E24" t="n">
-        <v>116358.9629867641</v>
+        <v>-332904.3485972146</v>
       </c>
     </row>
     <row r="25">
@@ -8394,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139596.6813744844</v>
+        <v>-294770.513166312</v>
       </c>
       <c r="E25" t="n">
-        <v>139596.6813744844</v>
+        <v>-294770.513166312</v>
       </c>
     </row>
     <row r="26">
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>157872.8672016999</v>
+        <v>-258382.5025120612</v>
       </c>
       <c r="E26" t="n">
-        <v>157872.8672016999</v>
+        <v>-258382.5025120612</v>
       </c>
     </row>
     <row r="27">
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>171322.9505552185</v>
+        <v>-223752.5790242926</v>
       </c>
       <c r="E27" t="n">
-        <v>171322.9505552185</v>
+        <v>-223752.5790242926</v>
       </c>
     </row>
     <row r="28">
@@ -8445,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>180055.3405533454</v>
+        <v>-190892.1587501445</v>
       </c>
       <c r="E28" t="n">
-        <v>180055.3405533454</v>
+        <v>-190892.1587501445</v>
       </c>
     </row>
     <row r="29">
@@ -8462,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>184118.2902939904</v>
+        <v>-159811.5752257049</v>
       </c>
       <c r="E29" t="n">
-        <v>184118.2902939904</v>
+        <v>-159811.5752257049</v>
       </c>
     </row>
     <row r="30">
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>183488.5437429703</v>
+        <v>-130519.8508716884</v>
       </c>
       <c r="E30" t="n">
-        <v>183488.5437429703</v>
+        <v>-130519.8508716884</v>
       </c>
     </row>
     <row r="31">
@@ -8496,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>178082.0978106735</v>
+        <v>-103024.4815958701</v>
       </c>
       <c r="E31" t="n">
-        <v>178082.0978106735</v>
+        <v>-103024.4815958701</v>
       </c>
     </row>
     <row r="32">
@@ -8513,10 +8513,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>167784.0152560612</v>
+        <v>-77331.23900163249</v>
       </c>
       <c r="E32" t="n">
-        <v>167784.0152560612</v>
+        <v>-77331.23900163249</v>
       </c>
     </row>
     <row r="33">
@@ -8530,10 +8530,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>152491.4435228151</v>
+        <v>-53443.99349056659</v>
       </c>
       <c r="E33" t="n">
-        <v>152491.4435228151</v>
+        <v>-53443.99349056659</v>
       </c>
     </row>
     <row r="34">
@@ -8541,16 +8541,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>132162.2481708654</v>
+        <v>-31364.56057437035</v>
       </c>
       <c r="E34" t="n">
-        <v>132162.2481708654</v>
+        <v>-31364.56057437035</v>
       </c>
     </row>
     <row r="35">
@@ -8558,16 +8558,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>106861.1925432525</v>
+        <v>-11092.57187520403</v>
       </c>
       <c r="E35" t="n">
-        <v>106861.1925432525</v>
+        <v>-11092.57187520403</v>
       </c>
     </row>
     <row r="36">
@@ -8575,16 +8575,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>76796.39303793773</v>
+        <v>7374.62841386173</v>
       </c>
       <c r="E36" t="n">
-        <v>76796.39303793773</v>
+        <v>7374.62841386173</v>
       </c>
     </row>
     <row r="37">
@@ -8592,16 +8592,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>42340.63207816632</v>
+        <v>24042.06142702449</v>
       </c>
       <c r="E37" t="n">
-        <v>42340.63207816632</v>
+        <v>24042.06142702449</v>
       </c>
     </row>
     <row r="38">
@@ -8609,16 +8609,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>4034.630379755075</v>
+        <v>38917.16618772186</v>
       </c>
       <c r="E38" t="n">
-        <v>4034.630379755075</v>
+        <v>38917.16618772186</v>
       </c>
     </row>
     <row r="39">
@@ -8626,16 +8626,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-37427.90001092019</v>
+        <v>52009.82753532469</v>
       </c>
       <c r="E39" t="n">
-        <v>-37427.90001092019</v>
+        <v>52009.82753532469</v>
       </c>
     </row>
     <row r="40">
@@ -8649,10 +8649,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-81231.12725506716</v>
+        <v>63332.38043551342</v>
       </c>
       <c r="E40" t="n">
-        <v>-81231.12725506716</v>
+        <v>63332.38043551342</v>
       </c>
     </row>
     <row r="41">
@@ -8666,10 +8666,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-126479.7221593524</v>
+        <v>72899.59194492825</v>
       </c>
       <c r="E41" t="n">
-        <v>-126479.7221593524</v>
+        <v>72899.59194492825</v>
       </c>
     </row>
     <row r="42">
@@ -8683,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-172247.9734201756</v>
+        <v>80728.62229618174</v>
       </c>
       <c r="E42" t="n">
-        <v>-172247.9734201756</v>
+        <v>80728.62229618174</v>
       </c>
     </row>
     <row r="43">
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-217629.8907972085</v>
+        <v>86838.9667170607</v>
       </c>
       <c r="E43" t="n">
-        <v>-217629.8907972085</v>
+        <v>86838.9667170607</v>
       </c>
     </row>
     <row r="44">
@@ -8717,10 +8717,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-261785.2887850408</v>
+        <v>91252.37970486213</v>
       </c>
       <c r="E44" t="n">
-        <v>-261785.2887850408</v>
+        <v>91252.37970486213</v>
       </c>
     </row>
     <row r="45">
@@ -8734,10 +8734,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-303977.8963696893</v>
+        <v>93992.78354904118</v>
       </c>
       <c r="E45" t="n">
-        <v>-303977.8963696893</v>
+        <v>93992.78354904118</v>
       </c>
     </row>
     <row r="46">
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-343602.9119213399</v>
+        <v>95086.16293734424</v>
       </c>
       <c r="E46" t="n">
-        <v>-343602.9119213399</v>
+        <v>95086.16293734424</v>
       </c>
     </row>
     <row r="47">
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-380202.8803106068</v>
+        <v>94560.44749613912</v>
       </c>
       <c r="E47" t="n">
-        <v>-380202.8803106068</v>
+        <v>94560.44749613912</v>
       </c>
     </row>
     <row r="48">
@@ -8785,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-413472.1108001265</v>
+        <v>92445.38410797161</v>
       </c>
       <c r="E48" t="n">
-        <v>-413472.1108001265</v>
+        <v>92445.38410797161</v>
       </c>
     </row>
     <row r="49">
@@ -8802,10 +8802,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-443250.9346420005</v>
+        <v>88772.4008208978</v>
       </c>
       <c r="E49" t="n">
-        <v>-443250.9346420005</v>
+        <v>88772.4008208978</v>
       </c>
     </row>
     <row r="50">
@@ -8819,10 +8819,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-469511.8409056212</v>
+        <v>83574.46411754146</v>
       </c>
       <c r="E50" t="n">
-        <v>-469511.8409056212</v>
+        <v>83574.46411754146</v>
       </c>
     </row>
     <row r="51">
@@ -8836,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-492339.9096016654</v>
+        <v>76885.93124894249</v>
       </c>
       <c r="E51" t="n">
-        <v>-492339.9096016654</v>
+        <v>76885.93124894249</v>
       </c>
     </row>
     <row r="52">
@@ -8853,10 +8853,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-511910.0142644231</v>
+        <v>68742.39926134644</v>
       </c>
       <c r="E52" t="n">
-        <v>-511910.0142644231</v>
+        <v>68742.39926134644</v>
       </c>
     </row>
     <row r="53">
@@ -8870,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-528463.0573333622</v>
+        <v>59180.55225502877</v>
       </c>
       <c r="E53" t="n">
-        <v>-528463.0573333622</v>
+        <v>59180.55225502877</v>
       </c>
     </row>
     <row r="54">
@@ -8887,10 +8887,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-542283.1135048681</v>
+        <v>48238.00831503357</v>
       </c>
       <c r="E54" t="n">
-        <v>-542283.1135048681</v>
+        <v>48238.00831503357</v>
       </c>
     </row>
     <row r="55">
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-553676.8732449247</v>
+        <v>35953.16744631794</v>
       </c>
       <c r="E55" t="n">
-        <v>-553676.8732449247</v>
+        <v>35953.16744631794</v>
       </c>
     </row>
     <row r="56">
@@ -8921,10 +8921,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-562956.2758624585</v>
+        <v>22365.0617321108</v>
       </c>
       <c r="E56" t="n">
-        <v>-562956.2758624585</v>
+        <v>22365.0617321108</v>
       </c>
     </row>
     <row r="57">
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-570424.7572126173</v>
+        <v>7513.208816161496</v>
       </c>
       <c r="E57" t="n">
-        <v>-570424.7572126173</v>
+        <v>7513.208816161496</v>
       </c>
     </row>
     <row r="58">
@@ -8955,10 +8955,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-576367.1498002468</v>
+        <v>-8562.530310987349</v>
       </c>
       <c r="E58" t="n">
-        <v>-576367.1498002468</v>
+        <v>-8562.530310987349</v>
       </c>
     </row>
     <row r="59">
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-581042.9821788229</v>
+        <v>-25822.08836316731</v>
       </c>
       <c r="E59" t="n">
-        <v>-581042.9821788229</v>
+        <v>-25822.08836316731</v>
       </c>
     </row>
     <row r="60">
@@ -8989,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-584682.7332598395</v>
+        <v>-44225.32290923604</v>
       </c>
       <c r="E60" t="n">
-        <v>-584682.7332598395</v>
+        <v>-44225.32290923604</v>
       </c>
     </row>
     <row r="61">
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-587486.496678065</v>
+        <v>-63732.14100381237</v>
       </c>
       <c r="E61" t="n">
-        <v>-587486.496678065</v>
+        <v>-63732.14100381237</v>
       </c>
     </row>
     <row r="62">
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-589624.4845365568</v>
+        <v>-84302.61679336138</v>
       </c>
       <c r="E62" t="n">
-        <v>-589624.4845365568</v>
+        <v>-84302.61679336138</v>
       </c>
     </row>
     <row r="63">
@@ -9040,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-591238.8292917006</v>
+        <v>-105897.1017031001</v>
       </c>
       <c r="E63" t="n">
-        <v>-591238.8292917006</v>
+        <v>-105897.1017031001</v>
       </c>
     </row>
     <row r="64">
@@ -9057,10 +9057,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-592446.2078878786</v>
+        <v>-128476.3269144426</v>
       </c>
       <c r="E64" t="n">
-        <v>-592446.2078878786</v>
+        <v>-128476.3269144426</v>
       </c>
     </row>
     <row r="65">
@@ -9074,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-593340.8964411889</v>
+        <v>-152001.4979404582</v>
       </c>
       <c r="E65" t="n">
-        <v>-593340.8964411889</v>
+        <v>-152001.4979404582</v>
       </c>
     </row>
     <row r="66">
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-593997.9532200971</v>
+        <v>-176434.3811974274</v>
       </c>
       <c r="E66" t="n">
-        <v>-593997.9532200971</v>
+        <v>-176434.3811974274</v>
       </c>
     </row>
     <row r="67">
@@ -9108,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-594476.3126674003</v>
+        <v>-201737.3825535638</v>
       </c>
       <c r="E67" t="n">
-        <v>-594476.3126674003</v>
+        <v>-201737.3825535638</v>
       </c>
     </row>
     <row r="68">
@@ -9125,10 +9125,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-594821.647694163</v>
+        <v>-227873.6179108861</v>
       </c>
       <c r="E68" t="n">
-        <v>-594821.647694163</v>
+        <v>-227873.6179108861</v>
       </c>
     </row>
     <row r="69">
@@ -9142,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-595068.9184624492</v>
+        <v>-254806.9759433965</v>
       </c>
       <c r="E69" t="n">
-        <v>-595068.9184624492</v>
+        <v>-254806.9759433965</v>
       </c>
     </row>
     <row r="70">
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-595244.5726960963</v>
+        <v>-282502.1731734041</v>
       </c>
       <c r="E70" t="n">
-        <v>-595244.5726960963</v>
+        <v>-282502.1731734041</v>
       </c>
     </row>
     <row r="71">
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-595368.3961306571</v>
+        <v>-310924.8016189734</v>
       </c>
       <c r="E71" t="n">
-        <v>-595368.3961306571</v>
+        <v>-310924.8016189734</v>
       </c>
     </row>
     <row r="72">
@@ -9193,10 +9193,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-595455.0338650565</v>
+        <v>-340041.3692886587</v>
       </c>
       <c r="E72" t="n">
-        <v>-595455.0338650565</v>
+        <v>-340041.3692886587</v>
       </c>
     </row>
   </sheetData>
@@ -9256,10 +9256,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-596898.6202474982</v>
+        <v>-1581868.055733664</v>
       </c>
       <c r="E2" t="n">
-        <v>-596898.6202474982</v>
+        <v>-1581868.055733664</v>
       </c>
     </row>
     <row r="3">
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-596898.1856047289</v>
+        <v>-1508666.967998864</v>
       </c>
       <c r="E3" t="n">
-        <v>-596898.1856047289</v>
+        <v>-1508666.967998864</v>
       </c>
     </row>
     <row r="4">
@@ -9290,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-596893.8832429567</v>
+        <v>-1436661.040565898</v>
       </c>
       <c r="E4" t="n">
-        <v>-596893.8832429567</v>
+        <v>-1436661.040565898</v>
       </c>
     </row>
     <row r="5">
@@ -9307,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-596862.9522006341</v>
+        <v>-1365925.152671505</v>
       </c>
       <c r="E5" t="n">
-        <v>-596862.9522006341</v>
+        <v>-1365925.152671505</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-596696.7344927657</v>
+        <v>-1296525.363286362</v>
       </c>
       <c r="E6" t="n">
-        <v>-596696.7344927657</v>
+        <v>-1296525.363286362</v>
       </c>
     </row>
     <row r="7">
@@ -9341,10 +9341,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-596011.166147902</v>
+        <v>-1228518.782003035</v>
       </c>
       <c r="E7" t="n">
-        <v>-596011.166147902</v>
+        <v>-1228518.782003035</v>
       </c>
     </row>
     <row r="8">
@@ -9358,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-593786.5897838825</v>
+        <v>-1161953.818205774</v>
       </c>
       <c r="E8" t="n">
-        <v>-593786.5897838825</v>
+        <v>-1161953.818205774</v>
       </c>
     </row>
     <row r="9">
@@ -9375,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-587972.8926234159</v>
+        <v>-1096870.746329949</v>
       </c>
       <c r="E9" t="n">
-        <v>-587972.8926234159</v>
+        <v>-1096870.746329949</v>
       </c>
     </row>
     <row r="10">
@@ -9392,10 +9392,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-575455.3498435231</v>
+        <v>-1033302.514768371</v>
       </c>
       <c r="E10" t="n">
-        <v>-575455.3498435231</v>
+        <v>-1033302.514768371</v>
       </c>
     </row>
     <row r="11">
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-552747.3884106601</v>
+        <v>-971275.7221783187</v>
       </c>
       <c r="E11" t="n">
-        <v>-552747.3884106601</v>
+        <v>-971275.7221783187</v>
       </c>
     </row>
     <row r="12">
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-517247.6454970794</v>
+        <v>-910811.6867601466</v>
       </c>
       <c r="E12" t="n">
-        <v>-517247.6454970794</v>
+        <v>-910811.6867601466</v>
       </c>
     </row>
     <row r="13">
@@ -9443,10 +9443,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-468310.6144012692</v>
+        <v>-851927.5403906724</v>
       </c>
       <c r="E13" t="n">
-        <v>-468310.6144012692</v>
+        <v>-851927.5403906724</v>
       </c>
     </row>
     <row r="14">
@@ -9460,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-407422.8969791185</v>
+        <v>-794637.2890346509</v>
       </c>
       <c r="E14" t="n">
-        <v>-407422.8969791185</v>
+        <v>-794637.2890346509</v>
       </c>
     </row>
     <row r="15">
@@ -9477,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-337470.2853265429</v>
+        <v>-738952.7923533074</v>
       </c>
       <c r="E15" t="n">
-        <v>-337470.2853265429</v>
+        <v>-738952.7923533074</v>
       </c>
     </row>
     <row r="16">
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-261726.3821232856</v>
+        <v>-684884.6277118328</v>
       </c>
       <c r="E16" t="n">
-        <v>-261726.3821232856</v>
+        <v>-684884.6277118328</v>
       </c>
     </row>
     <row r="17">
@@ -9511,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-183242.9663196544</v>
+        <v>-632442.8158697885</v>
       </c>
       <c r="E17" t="n">
-        <v>-183242.9663196544</v>
+        <v>-632442.8158697885</v>
       </c>
     </row>
     <row r="18">
@@ -9528,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-104873.9142859044</v>
+        <v>-581637.3967542308</v>
       </c>
       <c r="E18" t="n">
-        <v>-104873.9142859044</v>
+        <v>-581637.3967542308</v>
       </c>
     </row>
     <row r="19">
@@ -9545,10 +9545,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-29642.45060102587</v>
+        <v>-532478.8533354254</v>
       </c>
       <c r="E19" t="n">
-        <v>-29642.45060102587</v>
+        <v>-532478.8533354254</v>
       </c>
     </row>
     <row r="20">
@@ -9562,10 +9562,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>39093.91709446516</v>
+        <v>-484978.3894451305</v>
       </c>
       <c r="E20" t="n">
-        <v>39093.91709446516</v>
+        <v>-484978.3894451305</v>
       </c>
     </row>
     <row r="21">
@@ -9579,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>98057.74208453496</v>
+        <v>-439148.0732905219</v>
       </c>
       <c r="E21" t="n">
-        <v>98057.74208453496</v>
+        <v>-439148.0732905219</v>
       </c>
     </row>
     <row r="22">
@@ -9596,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144921.5231716608</v>
+        <v>-395000.8624750302</v>
       </c>
       <c r="E22" t="n">
-        <v>144921.5231716608</v>
+        <v>-395000.8624750302</v>
       </c>
     </row>
     <row r="23">
@@ -9613,10 +9613,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>179070.6084140273</v>
+        <v>-352550.5287098433</v>
       </c>
       <c r="E23" t="n">
-        <v>179070.6084140273</v>
+        <v>-352550.5287098433</v>
       </c>
     </row>
     <row r="24">
@@ -9630,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>201725.1467529868</v>
+        <v>-311811.5013310623</v>
       </c>
       <c r="E24" t="n">
-        <v>201725.1467529868</v>
+        <v>-311811.5013310623</v>
       </c>
     </row>
     <row r="25">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>215354.8667523241</v>
+        <v>-272798.6485102678</v>
       </c>
       <c r="E25" t="n">
-        <v>215354.8667523241</v>
+        <v>-272798.6485102678</v>
       </c>
     </row>
     <row r="26">
@@ -9664,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>222781.0841081759</v>
+        <v>-235527.0139508067</v>
       </c>
       <c r="E26" t="n">
-        <v>222781.0841081759</v>
+        <v>-235527.0139508067</v>
       </c>
     </row>
     <row r="27">
@@ -9681,10 +9681,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>226445.4585176054</v>
+        <v>-200011.5251730367</v>
       </c>
       <c r="E27" t="n">
-        <v>226445.4585176054</v>
+        <v>-200011.5251730367</v>
       </c>
     </row>
     <row r="28">
@@ -9698,10 +9698,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>228076.9915585786</v>
+        <v>-166266.6874517135</v>
       </c>
       <c r="E28" t="n">
-        <v>228076.9915585786</v>
+        <v>-166266.6874517135</v>
       </c>
     </row>
     <row r="29">
@@ -9715,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>228695.0291888623</v>
+        <v>-134306.2752798182</v>
       </c>
       <c r="E29" t="n">
-        <v>228695.0291888623</v>
+        <v>-134306.2752798182</v>
       </c>
     </row>
     <row r="30">
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>228746.3646631965</v>
+        <v>-104143.0310529264</v>
       </c>
       <c r="E30" t="n">
-        <v>228746.3646631965</v>
+        <v>-104143.0310529264</v>
       </c>
     </row>
     <row r="31">
@@ -9749,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>228193.11327218</v>
+        <v>-75788.37861104793</v>
       </c>
       <c r="E31" t="n">
-        <v>228193.11327218</v>
+        <v>-75788.37861104793</v>
       </c>
     </row>
     <row r="32">
@@ -9766,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>226466.3443207902</v>
+        <v>-49252.15741532728</v>
       </c>
       <c r="E32" t="n">
-        <v>226466.3443207902</v>
+        <v>-49252.15741532728</v>
       </c>
     </row>
     <row r="33">
@@ -9783,10 +9783,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>222326.9017701827</v>
+        <v>-24542.38151627825</v>
       </c>
       <c r="E33" t="n">
-        <v>222326.9017701827</v>
+        <v>-24542.38151627825</v>
       </c>
     </row>
     <row r="34">
@@ -9794,16 +9794,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>213794.4066369348</v>
+        <v>-1665.026102312273</v>
       </c>
       <c r="E34" t="n">
-        <v>213794.4066369348</v>
+        <v>-1665.026102312273</v>
       </c>
     </row>
     <row r="35">
@@ -9811,16 +9811,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>198344.9689599604</v>
+        <v>19376.15670368492</v>
       </c>
       <c r="E35" t="n">
-        <v>198344.9689599604</v>
+        <v>19376.15670368492</v>
       </c>
     </row>
     <row r="36">
@@ -9828,16 +9828,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>173459.5116777814</v>
+        <v>38579.7920259695</v>
       </c>
       <c r="E36" t="n">
-        <v>173459.5116777814</v>
+        <v>38579.7920259695</v>
       </c>
     </row>
     <row r="37">
@@ -9845,16 +9845,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>137363.1122656542</v>
+        <v>55947.00631702567</v>
       </c>
       <c r="E37" t="n">
-        <v>137363.1122656542</v>
+        <v>55947.00631702567</v>
       </c>
     </row>
     <row r="38">
@@ -9862,16 +9862,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>89614.83094395019</v>
+        <v>71481.52178725816</v>
       </c>
       <c r="E38" t="n">
-        <v>89614.83094395019</v>
+        <v>71481.52178725816</v>
       </c>
     </row>
     <row r="39">
@@ -9879,16 +9879,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>31262.47702120743</v>
+        <v>85189.72202526116</v>
       </c>
       <c r="E39" t="n">
-        <v>31262.47702120743</v>
+        <v>85189.72202526116</v>
       </c>
     </row>
     <row r="40">
@@ -9902,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-35458.62658879642</v>
+        <v>97080.6899383721</v>
       </c>
       <c r="E40" t="n">
-        <v>-35458.62658879642</v>
+        <v>97080.6899383721</v>
       </c>
     </row>
     <row r="41">
@@ -9919,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-107647.106142959</v>
+        <v>107166.2193520902</v>
       </c>
       <c r="E41" t="n">
-        <v>-107647.106142959</v>
+        <v>107166.2193520902</v>
       </c>
     </row>
     <row r="42">
@@ -9936,10 +9936,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-182188.8785145089</v>
+        <v>115460.8017587415</v>
       </c>
       <c r="E42" t="n">
-        <v>-182188.8785145089</v>
+        <v>115460.8017587415</v>
       </c>
     </row>
     <row r="43">
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-256007.6309182477</v>
+        <v>121981.5898174316</v>
       </c>
       <c r="E43" t="n">
-        <v>-256007.6309182477</v>
+        <v>121981.5898174316</v>
       </c>
     </row>
     <row r="44">
@@ -9970,10 +9970,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-326177.7272251709</v>
+        <v>126748.3392914726</v>
       </c>
       <c r="E44" t="n">
-        <v>-326177.7272251709</v>
+        <v>126748.3392914726</v>
       </c>
     </row>
     <row r="45">
@@ -9987,10 +9987,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-390051.8138793742</v>
+        <v>129783.3311745771</v>
       </c>
       <c r="E45" t="n">
-        <v>-390051.8138793742</v>
+        <v>129783.3311745771</v>
       </c>
     </row>
     <row r="46">
@@ -10004,10 +10004,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-445490.5391105351</v>
+        <v>131111.2758083336</v>
       </c>
       <c r="E46" t="n">
-        <v>-445490.5391105351</v>
+        <v>131111.2758083336</v>
       </c>
     </row>
     <row r="47">
@@ -10021,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-491146.165150245</v>
+        <v>130759.2008334891</v>
       </c>
       <c r="E47" t="n">
-        <v>-491146.165150245</v>
+        <v>130759.2008334891</v>
       </c>
     </row>
     <row r="48">
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-526661.7354935298</v>
+        <v>128756.3248469841</v>
       </c>
       <c r="E48" t="n">
-        <v>-526661.7354935298</v>
+        <v>128756.3248469841</v>
       </c>
     </row>
     <row r="49">
@@ -10055,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-552665.3545753511</v>
+        <v>125133.9186549455</v>
       </c>
       <c r="E49" t="n">
-        <v>-552665.3545753511</v>
+        <v>125133.9186549455</v>
       </c>
     </row>
     <row r="50">
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-570540.3337641729</v>
+        <v>119925.1560178999</v>
       </c>
       <c r="E50" t="n">
-        <v>-570540.3337641729</v>
+        <v>119925.1560178999</v>
       </c>
     </row>
     <row r="51">
@@ -10089,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-582058.6929621341</v>
+        <v>113164.9557766332</v>
       </c>
       <c r="E51" t="n">
-        <v>-582058.6929621341</v>
+        <v>113164.9557766332</v>
       </c>
     </row>
     <row r="52">
@@ -10106,10 +10106,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-589011.6296649305</v>
+        <v>104889.8172243898</v>
       </c>
       <c r="E52" t="n">
-        <v>-589011.6296649305</v>
+        <v>104889.8172243898</v>
       </c>
     </row>
     <row r="53">
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-592943.1913569993</v>
+        <v>95137.65055235621</v>
       </c>
       <c r="E53" t="n">
-        <v>-592943.1913569993</v>
+        <v>95137.65055235621</v>
       </c>
     </row>
     <row r="54">
@@ -10140,10 +10140,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-595026.6573063729</v>
+        <v>83947.60414026247</v>
       </c>
       <c r="E54" t="n">
-        <v>-595026.6573063729</v>
+        <v>83947.60414026247</v>
       </c>
     </row>
     <row r="55">
@@ -10157,10 +10157,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-596062.2749255624</v>
+        <v>71359.89039276092</v>
       </c>
       <c r="E55" t="n">
-        <v>-596062.2749255624</v>
+        <v>71359.89039276092</v>
       </c>
     </row>
     <row r="56">
@@ -10174,10 +10174,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-596545.6545394211</v>
+        <v>57415.61173548741</v>
       </c>
       <c r="E56" t="n">
-        <v>-596545.6545394211</v>
+        <v>57415.61173548741</v>
       </c>
     </row>
     <row r="57">
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-596757.7931163531</v>
+        <v>42156.58828399034</v>
       </c>
       <c r="E57" t="n">
-        <v>-596757.7931163531</v>
+        <v>42156.58828399034</v>
       </c>
     </row>
     <row r="58">
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-596845.456075378</v>
+        <v>25625.18858542605</v>
       </c>
       <c r="E58" t="n">
-        <v>-596845.456075378</v>
+        <v>25625.18858542605</v>
       </c>
     </row>
     <row r="59">
@@ -10225,10 +10225,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-596879.6175808694</v>
+        <v>7864.164709486242</v>
       </c>
       <c r="E59" t="n">
-        <v>-596879.6175808694</v>
+        <v>7864.164709486242</v>
       </c>
     </row>
     <row r="60">
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-596892.1912877852</v>
+        <v>-11083.50716665626</v>
       </c>
       <c r="E60" t="n">
-        <v>-596892.1912877852</v>
+        <v>-11083.50716665626</v>
       </c>
     </row>
     <row r="61">
@@ -10259,10 +10259,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-596896.5694014023</v>
+        <v>-31174.77967156668</v>
       </c>
       <c r="E61" t="n">
-        <v>-596896.5694014023</v>
+        <v>-31174.77967156668</v>
       </c>
     </row>
     <row r="62">
@@ -10276,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-596898.0138520666</v>
+        <v>-52366.67978350038</v>
       </c>
       <c r="E62" t="n">
-        <v>-596898.0138520666</v>
+        <v>-52366.67978350038</v>
       </c>
     </row>
     <row r="63">
@@ -10293,10 +10293,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-596898.4661261686</v>
+        <v>-74616.44627837487</v>
       </c>
       <c r="E63" t="n">
-        <v>-596898.4661261686</v>
+        <v>-74616.44627837487</v>
       </c>
     </row>
     <row r="64">
@@ -10310,10 +10310,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-596898.6007331775</v>
+        <v>-97881.65849452306</v>
       </c>
       <c r="E64" t="n">
-        <v>-596898.6007331775</v>
+        <v>-97881.65849452306</v>
       </c>
     </row>
     <row r="65">
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-596898.6388725217</v>
+        <v>-122120.3559625146</v>
       </c>
       <c r="E65" t="n">
-        <v>-596898.6388725217</v>
+        <v>-122120.3559625146</v>
       </c>
     </row>
     <row r="66">
@@ -10344,10 +10344,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-596898.6491758595</v>
+        <v>-147291.1485785407</v>
       </c>
       <c r="E66" t="n">
-        <v>-596898.6491758595</v>
+        <v>-147291.1485785407</v>
       </c>
     </row>
     <row r="67">
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-596898.6518336823</v>
+        <v>-173353.3171229</v>
       </c>
       <c r="E67" t="n">
-        <v>-596898.6518336823</v>
+        <v>-173353.3171229</v>
       </c>
     </row>
     <row r="68">
@@ -10378,10 +10378,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-596898.6524892936</v>
+        <v>-200266.9040398331</v>
       </c>
       <c r="E68" t="n">
-        <v>-596898.6524892936</v>
+        <v>-200266.9040398331</v>
       </c>
     </row>
     <row r="69">
@@ -10395,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-596898.6526441562</v>
+        <v>-227992.7945003802</v>
       </c>
       <c r="E69" t="n">
-        <v>-596898.6526441562</v>
+        <v>-227992.7945003802</v>
       </c>
     </row>
     <row r="70">
@@ -10412,10 +10412,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-596898.6526792352</v>
+        <v>-256492.7878651665</v>
       </c>
       <c r="E70" t="n">
-        <v>-596898.6526792352</v>
+        <v>-256492.7878651665</v>
       </c>
     </row>
     <row r="71">
@@ -10429,10 +10429,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-596898.6526868651</v>
+        <v>-285729.6597490109</v>
       </c>
       <c r="E71" t="n">
-        <v>-596898.6526868651</v>
+        <v>-285729.6597490109</v>
       </c>
     </row>
     <row r="72">
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-596898.6526884597</v>
+        <v>-315667.2149631645</v>
       </c>
       <c r="E72" t="n">
-        <v>-596898.6526884597</v>
+        <v>-315667.2149631645</v>
       </c>
     </row>
   </sheetData>
